--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3712321135929955</v>
+        <v>0.3712321135931091</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6145161776497616</v>
+        <v>0.6145161776495627</v>
       </c>
       <c r="E2">
-        <v>2.054830069276264</v>
+        <v>2.05483006927625</v>
       </c>
       <c r="F2">
-        <v>10.51726186717696</v>
+        <v>10.51726186717679</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1020037637883782</v>
+        <v>0.1020037637883764</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.7607336468358</v>
+        <v>12.76073364683577</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3236697495035088</v>
+        <v>0.3236697495036225</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4762170242401282</v>
+        <v>0.476217024240114</v>
       </c>
       <c r="E3">
-        <v>1.631850932953867</v>
+        <v>1.631850932953839</v>
       </c>
       <c r="F3">
-        <v>8.366638331028071</v>
+        <v>8.366638331028042</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.4798890808764</v>
+        <v>10.47988908087635</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2944306981400899</v>
+        <v>0.294430698139962</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0.4064118833240968</v>
       </c>
       <c r="E4">
-        <v>1.412469620211965</v>
+        <v>1.412469620211908</v>
       </c>
       <c r="F4">
         <v>7.24873655530709</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1419364868840063</v>
+        <v>0.1419364868840347</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.235748557393038</v>
+        <v>9.235748557392981</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2825071251236579</v>
+        <v>0.2825071251236722</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3804676940722374</v>
+        <v>0.3804676940728058</v>
       </c>
       <c r="E5">
-        <v>1.329614791529536</v>
+        <v>1.32961479152948</v>
       </c>
       <c r="F5">
-        <v>6.82711598052947</v>
+        <v>6.827115980529413</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1485105272755245</v>
+        <v>0.1485105272755298</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.75463147180605</v>
+        <v>8.754631471805993</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -570,25 +570,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3762849063408709</v>
+        <v>0.3762849063406577</v>
       </c>
       <c r="E6">
-        <v>1.316181275655467</v>
+        <v>1.316181275655453</v>
       </c>
       <c r="F6">
-        <v>6.758813189442748</v>
+        <v>6.758813189442776</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1496140609270089</v>
+        <v>0.1496140609270036</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.676035192721116</v>
+        <v>8.676035192721145</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.294269928801242</v>
+        <v>0.2942699288012562</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4060530907103015</v>
+        <v>0.4060530907099462</v>
       </c>
       <c r="E7">
-        <v>1.411329082036559</v>
+        <v>1.411329082036545</v>
       </c>
       <c r="F7">
         <v>7.242929294354013</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1420243481387278</v>
+        <v>0.1420243481387562</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.229168083714939</v>
+        <v>9.22916808371491</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3548420586486287</v>
+        <v>0.3548420586487566</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.562630492028859</v>
+        <v>0.5626304920288305</v>
       </c>
       <c r="E8">
-        <v>1.897641320426004</v>
+        <v>1.897641320426018</v>
       </c>
       <c r="F8">
         <v>9.719828583038208</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1102336724494961</v>
+        <v>0.1102336724494926</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.93092304397598</v>
+        <v>11.93092304397595</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E9">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F9">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E10">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F10">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E11">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F11">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E12">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F12">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E13">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F13">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E14">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F14">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E15">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F15">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E16">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F16">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E17">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F17">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E18">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F18">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E19">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F19">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E20">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F20">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E21">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F21">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E22">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F22">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E23">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F23">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E24">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F24">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4718919602075289</v>
+        <v>0.4718919602075147</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.218004166208658</v>
+        <v>1.218004166208829</v>
       </c>
       <c r="E25">
-        <v>3.839280097682874</v>
+        <v>3.83928009768286</v>
       </c>
       <c r="F25">
-        <v>19.08154747492739</v>
+        <v>19.08154747492716</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.04921371234753202</v>
+        <v>0.04921371234756577</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.75977786231664</v>
+        <v>20.75977786231653</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3712321135931091</v>
+        <v>0.3712321135929955</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6145161776495627</v>
+        <v>0.6145161776497616</v>
       </c>
       <c r="E2">
-        <v>2.05483006927625</v>
+        <v>2.054830069276264</v>
       </c>
       <c r="F2">
-        <v>10.51726186717679</v>
+        <v>10.51726186717696</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1020037637883764</v>
+        <v>0.1020037637883782</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.76073364683577</v>
+        <v>12.7607336468358</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3236697495036225</v>
+        <v>0.3236697495035088</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.476217024240114</v>
+        <v>0.4762170242401282</v>
       </c>
       <c r="E3">
-        <v>1.631850932953839</v>
+        <v>1.631850932953867</v>
       </c>
       <c r="F3">
-        <v>8.366638331028042</v>
+        <v>8.366638331028071</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.47988908087635</v>
+        <v>10.4798890808764</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.294430698139962</v>
+        <v>0.2944306981400899</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>0.4064118833240968</v>
       </c>
       <c r="E4">
-        <v>1.412469620211908</v>
+        <v>1.412469620211965</v>
       </c>
       <c r="F4">
         <v>7.24873655530709</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1419364868840347</v>
+        <v>0.1419364868840063</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.235748557392981</v>
+        <v>9.235748557393038</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2825071251236722</v>
+        <v>0.2825071251236579</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3804676940728058</v>
+        <v>0.3804676940722374</v>
       </c>
       <c r="E5">
-        <v>1.32961479152948</v>
+        <v>1.329614791529536</v>
       </c>
       <c r="F5">
-        <v>6.827115980529413</v>
+        <v>6.82711598052947</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1485105272755298</v>
+        <v>0.1485105272755245</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.754631471805993</v>
+        <v>8.75463147180605</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -570,25 +570,25 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3762849063406577</v>
+        <v>0.3762849063408709</v>
       </c>
       <c r="E6">
-        <v>1.316181275655453</v>
+        <v>1.316181275655467</v>
       </c>
       <c r="F6">
-        <v>6.758813189442776</v>
+        <v>6.758813189442748</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1496140609270036</v>
+        <v>0.1496140609270089</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.676035192721145</v>
+        <v>8.676035192721116</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2942699288012562</v>
+        <v>0.294269928801242</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4060530907099462</v>
+        <v>0.4060530907103015</v>
       </c>
       <c r="E7">
-        <v>1.411329082036545</v>
+        <v>1.411329082036559</v>
       </c>
       <c r="F7">
         <v>7.242929294354013</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1420243481387562</v>
+        <v>0.1420243481387278</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.22916808371491</v>
+        <v>9.229168083714939</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3548420586487566</v>
+        <v>0.3548420586486287</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5626304920288305</v>
+        <v>0.562630492028859</v>
       </c>
       <c r="E8">
-        <v>1.897641320426018</v>
+        <v>1.897641320426004</v>
       </c>
       <c r="F8">
         <v>9.719828583038208</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1102336724494926</v>
+        <v>0.1102336724494961</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.93092304397595</v>
+        <v>11.93092304397598</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E9">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F9">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E10">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F10">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E11">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F11">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E12">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F12">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E13">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F13">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E14">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F14">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E15">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F15">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E16">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F16">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E17">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F17">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E18">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F18">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E19">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F19">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E20">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F20">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E21">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F21">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E22">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F22">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E23">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F23">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E24">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F24">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4718919602075147</v>
+        <v>0.4718919602075289</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.218004166208829</v>
+        <v>1.218004166208658</v>
       </c>
       <c r="E25">
-        <v>3.83928009768286</v>
+        <v>3.839280097682874</v>
       </c>
       <c r="F25">
-        <v>19.08154747492716</v>
+        <v>19.08154747492739</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.04921371234756577</v>
+        <v>0.04921371234753202</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.75977786231653</v>
+        <v>20.75977786231664</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3712321135929955</v>
+        <v>0.3708402507491115</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6145161776497616</v>
+        <v>0.594818753370788</v>
       </c>
       <c r="E2">
-        <v>2.054830069276264</v>
+        <v>2.020199364926981</v>
       </c>
       <c r="F2">
-        <v>10.51726186717696</v>
+        <v>10.29319853319504</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005808367511330736</v>
       </c>
       <c r="H2">
-        <v>0.1020037637883782</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1058221497209892</v>
       </c>
       <c r="J2">
-        <v>12.7607336468358</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.5452387550383</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3236697495035088</v>
+        <v>0.3232912523533571</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4762170242401282</v>
+        <v>0.462416166397162</v>
       </c>
       <c r="E3">
-        <v>1.631850932953867</v>
+        <v>1.608189949264585</v>
       </c>
       <c r="F3">
-        <v>8.366638331028071</v>
+        <v>8.212169504354506</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006185907185372042</v>
       </c>
       <c r="H3">
-        <v>0.1262857259005052</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1304127285959549</v>
       </c>
       <c r="J3">
-        <v>10.4798890808764</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.31696541071832</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2944306981400899</v>
+        <v>0.2940727280725639</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4064118833240968</v>
+        <v>0.3953817815463054</v>
       </c>
       <c r="E4">
-        <v>1.412469620211965</v>
+        <v>1.393380712229956</v>
       </c>
       <c r="F4">
-        <v>7.24873655530709</v>
+        <v>7.126597757216757</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006399956384648179</v>
       </c>
       <c r="H4">
-        <v>0.1419364868840063</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1462693295095541</v>
       </c>
       <c r="J4">
-        <v>9.235748557393038</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.097003166637222</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2825071251236579</v>
+        <v>0.2821594387030473</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3804676940722374</v>
+        <v>0.3704493233695416</v>
       </c>
       <c r="E5">
-        <v>1.329614791529536</v>
+        <v>1.312096627260757</v>
       </c>
       <c r="F5">
-        <v>6.82711598052947</v>
+        <v>6.716710836597429</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006484557516019951</v>
       </c>
       <c r="H5">
-        <v>0.1485105272755245</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1529300008918266</v>
       </c>
       <c r="J5">
-        <v>8.75463147180605</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>8.624617600287053</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2805266653465139</v>
+        <v>0.2801807812770676</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3762849063408709</v>
+        <v>0.3664291048738164</v>
       </c>
       <c r="E6">
-        <v>1.316181275655467</v>
+        <v>1.298910479831392</v>
       </c>
       <c r="F6">
-        <v>6.758813189442748</v>
+        <v>6.650289625023845</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006498484245541874</v>
       </c>
       <c r="H6">
-        <v>0.1496140609270089</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1540480663131749</v>
       </c>
       <c r="J6">
-        <v>8.676035192721116</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.547419199641411</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.294269928801242</v>
+        <v>0.2939120906694654</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4060530907103015</v>
+        <v>0.3950370284910178</v>
       </c>
       <c r="E7">
-        <v>1.411329082036559</v>
+        <v>1.392262337582622</v>
       </c>
       <c r="F7">
-        <v>7.242929294354013</v>
+        <v>7.120953596958913</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.000640110620477847</v>
       </c>
       <c r="H7">
-        <v>0.1420243481387278</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1463583489238811</v>
       </c>
       <c r="J7">
-        <v>9.229168083714939</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.090544228754794</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3548420586486287</v>
+        <v>0.3544511989274639</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.562630492028859</v>
+        <v>0.5452300858426895</v>
       </c>
       <c r="E8">
-        <v>1.897641320426004</v>
+        <v>1.867475036555291</v>
       </c>
       <c r="F8">
-        <v>9.719828583038208</v>
+        <v>9.522987483974447</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005943718650793794</v>
       </c>
       <c r="H8">
-        <v>0.1102336724494961</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1141537008772904</v>
       </c>
       <c r="J8">
-        <v>11.93092304397598</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.73606975341343</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E9">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F9">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H9">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J9">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E10">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F10">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H10">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J10">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E11">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F11">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H11">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J11">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E12">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F12">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H12">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J12">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E13">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F13">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H13">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J13">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E14">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F14">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H14">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J14">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E15">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F15">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H15">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J15">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E16">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F16">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H16">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J16">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E17">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F17">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H17">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J17">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E18">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F18">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H18">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J18">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E19">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F19">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H19">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J19">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E20">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F20">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H20">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J20">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E21">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F21">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H21">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J21">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E22">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F22">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H22">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J22">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E23">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F23">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H23">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J23">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E24">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F24">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H24">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J24">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4718919602075289</v>
+        <v>0.4719583577439721</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.218004166208658</v>
+        <v>1.14297230481472</v>
       </c>
       <c r="E25">
-        <v>3.839280097682874</v>
+        <v>3.657501981509171</v>
       </c>
       <c r="F25">
-        <v>19.08154747492739</v>
+        <v>18.18790574159704</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004620047185694975</v>
       </c>
       <c r="H25">
-        <v>0.04921371234753202</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.05334820682192998</v>
       </c>
       <c r="J25">
-        <v>20.75977786231664</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.02191278159037</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3708402507491115</v>
+        <v>0.2734804656716676</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.594818753370788</v>
+        <v>0.3249925918182299</v>
       </c>
       <c r="E2">
-        <v>2.020199364926981</v>
+        <v>0.02658614787958136</v>
       </c>
       <c r="F2">
-        <v>10.29319853319504</v>
+        <v>6.938395649241727</v>
       </c>
       <c r="G2">
-        <v>0.0005808367511330736</v>
+        <v>0.0006900470798894706</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1058221497209892</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.5452387550383</v>
+        <v>4.528924211983281</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.940254628606425</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3232912523533571</v>
+        <v>0.2380035307646153</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.462416166397162</v>
+        <v>0.2749184413121526</v>
       </c>
       <c r="E3">
-        <v>1.608189949264585</v>
+        <v>0.02573919278480208</v>
       </c>
       <c r="F3">
-        <v>8.212169504354506</v>
+        <v>5.881073211524239</v>
       </c>
       <c r="G3">
-        <v>0.0006185907185372042</v>
+        <v>0.0007106054019474262</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1304127285959549</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.31696541071832</v>
+        <v>3.842377076959025</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.490600976178769</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2940727280725639</v>
+        <v>0.2165868601118035</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3953817815463054</v>
+        <v>0.246545374677055</v>
       </c>
       <c r="E4">
-        <v>1.393380712229956</v>
+        <v>0.02530630028751635</v>
       </c>
       <c r="F4">
-        <v>7.126597757216757</v>
+        <v>5.273396057625831</v>
       </c>
       <c r="G4">
-        <v>0.0006399956384648179</v>
+        <v>0.000723181195009263</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1462693295095541</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.097003166637222</v>
+        <v>3.438534445213264</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.226707722491525</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2821594387030473</v>
+        <v>0.2079374421632565</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3704493233695416</v>
+        <v>0.23546432962263</v>
       </c>
       <c r="E5">
-        <v>1.312096627260757</v>
+        <v>0.02514665782733327</v>
       </c>
       <c r="F5">
-        <v>6.716710836597429</v>
+        <v>5.034192007691615</v>
       </c>
       <c r="G5">
-        <v>0.0006484557516019951</v>
+        <v>0.0007283137846425536</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1529300008918266</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.624617600287053</v>
+        <v>3.27747055250282</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.121604214305449</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2801807812770676</v>
+        <v>0.2065055562211029</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3664291048738164</v>
+        <v>0.2336504824640997</v>
       </c>
       <c r="E6">
-        <v>1.298910479831392</v>
+        <v>0.02512103798751586</v>
       </c>
       <c r="F6">
-        <v>6.650289625023845</v>
+        <v>4.994930552996237</v>
       </c>
       <c r="G6">
-        <v>0.0006498484245541874</v>
+        <v>0.0007291670205083963</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1540480663131749</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.547419199641411</v>
+        <v>3.250913852695618</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.104282941914377</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2939120906694654</v>
+        <v>0.2164699120347962</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3950370284910178</v>
+        <v>0.246394117948185</v>
       </c>
       <c r="E7">
-        <v>1.392262337582622</v>
+        <v>0.0253040851761922</v>
       </c>
       <c r="F7">
-        <v>7.120953596958913</v>
+        <v>5.270138289218352</v>
       </c>
       <c r="G7">
-        <v>0.000640110620477847</v>
+        <v>0.0007232503601000953</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1463583489238811</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.090544228754794</v>
+        <v>3.436349191349223</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.225281138460346</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3544511989274639</v>
+        <v>0.261162774214128</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5452300858426895</v>
+        <v>0.3071563720447017</v>
       </c>
       <c r="E8">
-        <v>1.867475036555291</v>
+        <v>0.02627241936040925</v>
       </c>
       <c r="F8">
-        <v>9.522987483974447</v>
+        <v>6.563852553362921</v>
       </c>
       <c r="G8">
-        <v>0.0005943718650793794</v>
+        <v>0.0006971586724448522</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1141537008772904</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.73606975341343</v>
+        <v>4.287888772694942</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.782255978602265</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4719583577439721</v>
+        <v>0.3525058234188805</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.14297230481472</v>
+        <v>0.4522799650600859</v>
       </c>
       <c r="E9">
-        <v>3.657501981509171</v>
+        <v>0.02921403775020193</v>
       </c>
       <c r="F9">
-        <v>18.18790574159704</v>
+        <v>9.553984161864491</v>
       </c>
       <c r="G9">
-        <v>0.0004620047185694975</v>
+        <v>0.0006444098839443322</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.02191278159037</v>
+        <v>6.156579875046077</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4.01001114890056</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4719583577439721</v>
+        <v>0.4233774669371968</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.14297230481472</v>
+        <v>0.5900936584513659</v>
       </c>
       <c r="E10">
-        <v>3.657501981509171</v>
+        <v>0.03286394754771571</v>
       </c>
       <c r="F10">
-        <v>18.18790574159704</v>
+        <v>12.29059389172971</v>
       </c>
       <c r="G10">
-        <v>0.0004620047185694975</v>
+        <v>0.0006021166586062299</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>20.02191278159037</v>
+        <v>7.775580030598178</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5.076882958335503</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4719583577439721</v>
+        <v>0.4569786301483703</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.14297230481472</v>
+        <v>0.6660828926403894</v>
       </c>
       <c r="E11">
-        <v>3.657501981509171</v>
+        <v>0.03526419971271588</v>
       </c>
       <c r="F11">
-        <v>18.18790574159704</v>
+        <v>13.76326619173392</v>
       </c>
       <c r="G11">
-        <v>0.0004620047185694975</v>
+        <v>0.0005810291096813968</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.02191278159037</v>
+        <v>8.618106572926735</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.632271942328927</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4719583577439721</v>
+        <v>0.4699751315323653</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.14297230481472</v>
+        <v>0.6978214425429314</v>
       </c>
       <c r="E12">
-        <v>3.657501981509171</v>
+        <v>0.03635411769639596</v>
       </c>
       <c r="F12">
-        <v>18.18790574159704</v>
+        <v>14.37132096953781</v>
       </c>
       <c r="G12">
-        <v>0.0004620047185694975</v>
+        <v>0.0005726057747712801</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.02191278159037</v>
+        <v>8.96081031524534</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.858090412172885</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4719583577439721</v>
+        <v>0.4671622459864437</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.14297230481472</v>
+        <v>0.6908287744236077</v>
       </c>
       <c r="E13">
-        <v>3.657501981509171</v>
+        <v>0.03610942739852918</v>
       </c>
       <c r="F13">
-        <v>18.18790574159704</v>
+        <v>14.23770041831585</v>
       </c>
       <c r="G13">
-        <v>0.0004620047185694975</v>
+        <v>0.0005744435129223016</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.02191278159037</v>
+        <v>8.885748142328794</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.808636622975357</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4719583577439721</v>
+        <v>0.4580417941381256</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.14297230481472</v>
+        <v>0.6686258585618248</v>
       </c>
       <c r="E14">
-        <v>3.657501981509171</v>
+        <v>0.03534958384327158</v>
       </c>
       <c r="F14">
-        <v>18.18790574159704</v>
+        <v>13.8121345188992</v>
       </c>
       <c r="G14">
-        <v>0.0004620047185694975</v>
+        <v>0.0005803463293022553</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.02191278159037</v>
+        <v>8.645756723817669</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.65049433034865</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4719583577439721</v>
+        <v>0.4524937790351231</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.14297230481472</v>
+        <v>0.6554557709716278</v>
       </c>
       <c r="E15">
-        <v>3.657501981509171</v>
+        <v>0.03491099242985696</v>
       </c>
       <c r="F15">
-        <v>18.18790574159704</v>
+        <v>13.55875908528088</v>
       </c>
       <c r="G15">
-        <v>0.0004620047185694975</v>
+        <v>0.0005838977678970943</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.02191278159037</v>
+        <v>8.502186580459608</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.555872258560598</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4719583577439721</v>
+        <v>0.4212145860073235</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.14297230481472</v>
+        <v>0.5854698129365659</v>
       </c>
       <c r="E16">
-        <v>3.657501981509171</v>
+        <v>0.03272711386718896</v>
       </c>
       <c r="F16">
-        <v>18.18790574159704</v>
+        <v>12.20019086665991</v>
       </c>
       <c r="G16">
-        <v>0.0004620047185694975</v>
+        <v>0.0006034453280951047</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.02191278159037</v>
+        <v>7.723251246251806</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5.042384372790451</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4719583577439721</v>
+        <v>0.4024173832132902</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.14297230481472</v>
+        <v>0.5464970915020899</v>
       </c>
       <c r="E17">
-        <v>3.657501981509171</v>
+        <v>0.03161441901471718</v>
       </c>
       <c r="F17">
-        <v>18.18790574159704</v>
+        <v>11.43445829174956</v>
       </c>
       <c r="G17">
-        <v>0.0004620047185694975</v>
+        <v>0.0006148723560586156</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.02191278159037</v>
+        <v>7.277018938284868</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.748213941810775</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4719583577439721</v>
+        <v>0.3917277580309531</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.14297230481472</v>
+        <v>0.5252458331103753</v>
       </c>
       <c r="E18">
-        <v>3.657501981509171</v>
+        <v>0.03103775808255316</v>
       </c>
       <c r="F18">
-        <v>18.18790574159704</v>
+        <v>11.01401644359368</v>
       </c>
       <c r="G18">
-        <v>0.0004620047185694975</v>
+        <v>0.0006212851042572964</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.02191278159037</v>
+        <v>7.029645439284991</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.585163180715895</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4719583577439721</v>
+        <v>0.3881276629631714</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.14297230481472</v>
+        <v>0.518228543854093</v>
       </c>
       <c r="E19">
-        <v>3.657501981509171</v>
+        <v>0.03085192182594576</v>
       </c>
       <c r="F19">
-        <v>18.18790574159704</v>
+        <v>10.87472291953188</v>
       </c>
       <c r="G19">
-        <v>0.0004620047185694975</v>
+        <v>0.0006234325383802836</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.02191278159037</v>
+        <v>6.947307070554871</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.530897986604074</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4719583577439721</v>
+        <v>0.4044053185876209</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.14297230481472</v>
+        <v>0.5505197229363148</v>
       </c>
       <c r="E20">
-        <v>3.657501981509171</v>
+        <v>0.03172594174335286</v>
       </c>
       <c r="F20">
-        <v>18.18790574159704</v>
+        <v>11.51381001293328</v>
       </c>
       <c r="G20">
-        <v>0.0004620047185694975</v>
+        <v>0.0006136733751310277</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>20.02191278159037</v>
+        <v>7.323515517992149</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.778863763093796</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4719583577439721</v>
+        <v>0.4607124546394203</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.14297230481472</v>
+        <v>0.6750547278041381</v>
       </c>
       <c r="E21">
-        <v>3.657501981509171</v>
+        <v>0.03556694209111866</v>
       </c>
       <c r="F21">
-        <v>18.18790574159704</v>
+        <v>13.93556160351034</v>
       </c>
       <c r="G21">
-        <v>0.0004620047185694975</v>
+        <v>0.0005786264126699248</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.02191278159037</v>
+        <v>8.715508300911011</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.696460989336444</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4719583577439721</v>
+        <v>0.4991798373192609</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.14297230481472</v>
+        <v>0.7749510374914621</v>
       </c>
       <c r="E22">
-        <v>3.657501981509171</v>
+        <v>0.03922992124533842</v>
       </c>
       <c r="F22">
-        <v>18.18790574159704</v>
+        <v>15.83248962962296</v>
       </c>
       <c r="G22">
-        <v>0.0004620047185694975</v>
+        <v>0.0005529681709612406</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.02191278159037</v>
+        <v>9.77295174932064</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>6.392802245059897</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4719583577439721</v>
+        <v>0.4784563641792232</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.14297230481472</v>
+        <v>0.7193420020110182</v>
       </c>
       <c r="E23">
-        <v>3.657501981509171</v>
+        <v>0.03712360692363958</v>
       </c>
       <c r="F23">
-        <v>18.18790574159704</v>
+        <v>14.78133656846239</v>
       </c>
       <c r="G23">
-        <v>0.0004620047185694975</v>
+        <v>0.0005670119229123082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.02191278159037</v>
+        <v>9.190289599616676</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6.009250493275246</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4719583577439721</v>
+        <v>0.4035062131978293</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.14297230481472</v>
+        <v>0.5486975614065557</v>
       </c>
       <c r="E24">
-        <v>3.657501981509171</v>
+        <v>0.03167533053203253</v>
       </c>
       <c r="F24">
-        <v>18.18790574159704</v>
+        <v>11.47787458723758</v>
       </c>
       <c r="G24">
-        <v>0.0004620047185694975</v>
+        <v>0.0006142159117718887</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>20.02191278159037</v>
+        <v>7.302466382399757</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.764988413201692</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4719583577439721</v>
+        <v>0.3272698858610283</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.14297230481472</v>
+        <v>0.4090204548003413</v>
       </c>
       <c r="E25">
-        <v>3.657501981509171</v>
+        <v>0.02824359318546166</v>
       </c>
       <c r="F25">
-        <v>18.18790574159704</v>
+        <v>8.675517655382492</v>
       </c>
       <c r="G25">
-        <v>0.0004620047185694975</v>
+        <v>0.0006590549536840936</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.05334820682192998</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.02191278159037</v>
+        <v>5.619812071460842</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>3.656776291289233</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2734804656716676</v>
+        <v>0.2702896093195903</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3249925918182299</v>
+        <v>0.04326708700625659</v>
       </c>
       <c r="E2">
-        <v>0.02658614787958136</v>
+        <v>1.415859042727931</v>
       </c>
       <c r="F2">
-        <v>6.938395649241727</v>
+        <v>0.4856273651284795</v>
       </c>
       <c r="G2">
-        <v>0.0006900470798894706</v>
+        <v>0.0007808302909143008</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>4.528924211983281</v>
+        <v>2.987131246801653</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.940254628606425</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.326241624690425</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2380035307646153</v>
+        <v>0.2362391362285905</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2749184413121526</v>
+        <v>0.03889800256585119</v>
       </c>
       <c r="E3">
-        <v>0.02573919278480208</v>
+        <v>1.214905895688673</v>
       </c>
       <c r="F3">
-        <v>5.881073211524239</v>
+        <v>0.445381421773078</v>
       </c>
       <c r="G3">
-        <v>0.0007106054019474262</v>
+        <v>0.0007856697700256879</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.842377076959025</v>
+        <v>2.615071306581882</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.490600976178769</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.243147442169658</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2165868601118035</v>
+        <v>0.2155058677475239</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.246545374677055</v>
+        <v>0.03621365809316757</v>
       </c>
       <c r="E4">
-        <v>0.02530630028751635</v>
+        <v>1.093926123299156</v>
       </c>
       <c r="F4">
-        <v>5.273396057625831</v>
+        <v>0.4221788531119444</v>
       </c>
       <c r="G4">
-        <v>0.000723181195009263</v>
+        <v>0.0007887227876530441</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.438534445213264</v>
+        <v>2.387075008842942</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.226707722491525</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.197144444268105</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2079374421632565</v>
+        <v>0.2070961317126603</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.23546432962263</v>
+        <v>0.03511899568087529</v>
       </c>
       <c r="E5">
-        <v>0.02514665782733327</v>
+        <v>1.04513838573105</v>
       </c>
       <c r="F5">
-        <v>5.034192007691615</v>
+        <v>0.4130734044280118</v>
       </c>
       <c r="G5">
-        <v>0.0007283137846425536</v>
+        <v>0.0007899881722967517</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.27747055250282</v>
+        <v>2.294230894287665</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.121604214305449</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.179564807419951</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2065055562211029</v>
+        <v>0.205701945335008</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2336504824640997</v>
+        <v>0.03493717208827007</v>
       </c>
       <c r="E6">
-        <v>0.02512103798751586</v>
+        <v>1.037065618730281</v>
       </c>
       <c r="F6">
-        <v>4.994930552996237</v>
+        <v>0.4115817508334416</v>
       </c>
       <c r="G6">
-        <v>0.0007291670205083963</v>
+        <v>0.0007901995929927148</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.250913852695618</v>
+        <v>2.27881689995283</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.104282941914377</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.176713558472045</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2164699120347962</v>
+        <v>0.215392297962623</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.246394117948185</v>
+        <v>0.03619889863364989</v>
       </c>
       <c r="E7">
-        <v>0.0253040851761922</v>
+        <v>1.093266196211516</v>
       </c>
       <c r="F7">
-        <v>5.270138289218352</v>
+        <v>0.4220546752100631</v>
       </c>
       <c r="G7">
-        <v>0.0007232503601000953</v>
+        <v>0.0007887397660115147</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>3.436349191349223</v>
+        <v>2.385822671776424</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.225281138460346</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.19690275455082</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.261162774214128</v>
+        <v>0.2585101353493116</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3071563720447017</v>
+        <v>0.04176076278638874</v>
       </c>
       <c r="E8">
-        <v>0.02627241936040925</v>
+        <v>1.346012594891846</v>
       </c>
       <c r="F8">
-        <v>6.563852553362921</v>
+        <v>0.4714190155812972</v>
       </c>
       <c r="G8">
-        <v>0.0006971586724448522</v>
+        <v>0.0007824824823959166</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.287888772694942</v>
+        <v>2.858722020677277</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.782255978602265</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.296490374339925</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3525058234188805</v>
+        <v>0.3446629811317194</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4522799650600859</v>
+        <v>0.05267205618878279</v>
       </c>
       <c r="E9">
-        <v>0.02921403775020193</v>
+        <v>1.865404277809702</v>
       </c>
       <c r="F9">
-        <v>9.553984161864491</v>
+        <v>0.5816399268477781</v>
       </c>
       <c r="G9">
-        <v>0.0006444098839443322</v>
+        <v>0.0007708223148883348</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.156579875046077</v>
+        <v>3.792015542963213</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.01001114890056</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.536228966244522</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4233774669371968</v>
+        <v>0.4092665699920275</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5900936584513659</v>
+        <v>0.06072083620320967</v>
       </c>
       <c r="E10">
-        <v>0.03286394754771571</v>
+        <v>2.26884289692633</v>
       </c>
       <c r="F10">
-        <v>12.29059389172971</v>
+        <v>0.6730072623280563</v>
       </c>
       <c r="G10">
-        <v>0.0006021166586062299</v>
+        <v>0.0007625712265195983</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.775580030598178</v>
+        <v>4.485036681802001</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.076882958335503</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.746549213920304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4569786301483703</v>
+        <v>0.439020687167158</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6660828926403894</v>
+        <v>0.06439720016564365</v>
       </c>
       <c r="E11">
-        <v>0.03526419971271588</v>
+        <v>2.459042501145305</v>
       </c>
       <c r="F11">
-        <v>13.76326619173392</v>
+        <v>0.7173797931815358</v>
       </c>
       <c r="G11">
-        <v>0.0005810291096813968</v>
+        <v>0.0007588719905472496</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.618106572926735</v>
+        <v>4.802841464418805</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.632271942328927</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.851428640275174</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4699751315323653</v>
+        <v>0.4503475565233828</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6978214425429314</v>
+        <v>0.06579222642093185</v>
       </c>
       <c r="E12">
-        <v>0.03635411769639596</v>
+        <v>2.532213055282455</v>
       </c>
       <c r="F12">
-        <v>14.37132096953781</v>
+        <v>0.7346381809259981</v>
       </c>
       <c r="G12">
-        <v>0.0005726057747712801</v>
+        <v>0.0007574776618496748</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.96081031524534</v>
+        <v>4.923639495458929</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.858090412172885</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.892634591294268</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4671622459864437</v>
+        <v>0.4479053417011443</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6908287744236077</v>
+        <v>0.06549164252697892</v>
       </c>
       <c r="E13">
-        <v>0.03610942739852918</v>
+        <v>2.5164002360995</v>
       </c>
       <c r="F13">
-        <v>14.23770041831585</v>
+        <v>0.7309001390920429</v>
       </c>
       <c r="G13">
-        <v>0.0005744435129223016</v>
+        <v>0.0007577776891885546</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.885748142328794</v>
+        <v>4.897601883475545</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.808636622975357</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.883691005827501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4580417941381256</v>
+        <v>0.4399513178973393</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6686258585618248</v>
+        <v>0.06451190788279604</v>
       </c>
       <c r="E14">
-        <v>0.03534958384327158</v>
+        <v>2.465038153447807</v>
       </c>
       <c r="F14">
-        <v>13.8121345188992</v>
+        <v>0.7187902072416676</v>
       </c>
       <c r="G14">
-        <v>0.0005803463293022553</v>
+        <v>0.0007587571562039839</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.645756723817669</v>
+        <v>4.812769997760768</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.65049433034865</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.854787785562877</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4524937790351231</v>
+        <v>0.4350872338827401</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6554557709716278</v>
+        <v>0.06391218852504466</v>
       </c>
       <c r="E15">
-        <v>0.03491099242985696</v>
+        <v>2.43373263945314</v>
       </c>
       <c r="F15">
-        <v>13.55875908528088</v>
+        <v>0.7114334667342206</v>
       </c>
       <c r="G15">
-        <v>0.0005838977678970943</v>
+        <v>0.0007593579121361536</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.502186580459608</v>
+        <v>4.760869643903277</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.555872258560598</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.837283096091198</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4212145860073235</v>
+        <v>0.4073300154667407</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5854698129365659</v>
+        <v>0.06048093699462953</v>
       </c>
       <c r="E16">
-        <v>0.03272711386718896</v>
+        <v>2.256562538063307</v>
       </c>
       <c r="F16">
-        <v>12.20019086665991</v>
+        <v>0.6701682173099925</v>
       </c>
       <c r="G16">
-        <v>0.0006034453280951047</v>
+        <v>0.0007628139631141594</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.723251246251806</v>
+        <v>4.464325763329612</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.042384372790451</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.739894146918488</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4024173832132902</v>
+        <v>0.3904003430212271</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5464970915020899</v>
+        <v>0.05838028227333325</v>
       </c>
       <c r="E17">
-        <v>0.03161441901471718</v>
+        <v>2.149708257611792</v>
       </c>
       <c r="F17">
-        <v>11.43445829174956</v>
+        <v>0.6456077353040826</v>
       </c>
       <c r="G17">
-        <v>0.0006148723560586156</v>
+        <v>0.0007649471433693256</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.277018938284868</v>
+        <v>4.28311602142935</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.748213941810775</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.682619512168799</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3917277580309531</v>
+        <v>0.3806968014413883</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5252458331103753</v>
+        <v>0.05717339834720292</v>
       </c>
       <c r="E18">
-        <v>0.03103775808255316</v>
+        <v>2.088864034299874</v>
       </c>
       <c r="F18">
-        <v>11.01401644359368</v>
+        <v>0.6317422029675299</v>
       </c>
       <c r="G18">
-        <v>0.0006212851042572964</v>
+        <v>0.0007661792824751892</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.029645439284991</v>
+        <v>4.179122899695528</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.585163180715895</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.650531931405283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3881276629631714</v>
+        <v>0.377416975827586</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.518228543854093</v>
+        <v>0.0567649808982722</v>
       </c>
       <c r="E19">
-        <v>0.03085192182594576</v>
+        <v>2.068363680557539</v>
       </c>
       <c r="F19">
-        <v>10.87472291953188</v>
+        <v>0.6270909196325789</v>
       </c>
       <c r="G19">
-        <v>0.0006234325383802836</v>
+        <v>0.000766597392507779</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.947307070554871</v>
+        <v>4.143950327094785</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.530897986604074</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.639809733202156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4044053185876209</v>
+        <v>0.3921989717605925</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5505197229363148</v>
+        <v>0.0586037551927916</v>
       </c>
       <c r="E20">
-        <v>0.03172594174335286</v>
+        <v>2.16101810507844</v>
       </c>
       <c r="F20">
-        <v>11.51381001293328</v>
+        <v>0.6481948717077159</v>
       </c>
       <c r="G20">
-        <v>0.0006136733751310277</v>
+        <v>0.000764719534488565</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.323515517992149</v>
+        <v>4.302381304409153</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.778863763093796</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.688626826837492</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4607124546394203</v>
+        <v>0.4422859299410504</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6750547278041381</v>
+        <v>0.06479959566189564</v>
       </c>
       <c r="E21">
-        <v>0.03556694209111866</v>
+        <v>2.480091717947005</v>
       </c>
       <c r="F21">
-        <v>13.93556160351034</v>
+        <v>0.7223343872928183</v>
       </c>
       <c r="G21">
-        <v>0.0005786264126699248</v>
+        <v>0.0007584692979985296</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.715508300911011</v>
+        <v>4.837674168031015</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.696460989336444</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.863235489006314</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4991798373192609</v>
+        <v>0.475371942212746</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7749510374914621</v>
+        <v>0.06886605427902737</v>
       </c>
       <c r="E22">
-        <v>0.03922992124533842</v>
+        <v>2.695411895716077</v>
       </c>
       <c r="F22">
-        <v>15.83248962962296</v>
+        <v>0.7734718807295167</v>
       </c>
       <c r="G22">
-        <v>0.0005529681709612406</v>
+        <v>0.0007544215255191487</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.77295174932064</v>
+        <v>5.190202623838672</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.392802245059897</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.986131098386949</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4784563641792232</v>
+        <v>0.4576786819316112</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7193420020110182</v>
+        <v>0.06669387823939132</v>
       </c>
       <c r="E23">
-        <v>0.03712360692363958</v>
+        <v>2.579801579005078</v>
       </c>
       <c r="F23">
-        <v>14.78133656846239</v>
+        <v>0.7459147817200886</v>
       </c>
       <c r="G23">
-        <v>0.0005670119229123082</v>
+        <v>0.0007565789737522111</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.190289599616676</v>
+        <v>5.001774828925249</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.009250493275246</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.919675913710591</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4035062131978293</v>
+        <v>0.3913857201837061</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5486975614065557</v>
+        <v>0.05850272061478279</v>
       </c>
       <c r="E24">
-        <v>0.03167533053203253</v>
+        <v>2.155903106139888</v>
       </c>
       <c r="F24">
-        <v>11.47787458723758</v>
+        <v>0.6470244380916483</v>
       </c>
       <c r="G24">
-        <v>0.0006142159117718887</v>
+        <v>0.0007648224184632071</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.302466382399757</v>
+        <v>4.293670894600154</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.764988413201692</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.685908314691233</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3272698858610283</v>
+        <v>0.3211523252825117</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4090204548003413</v>
+        <v>0.04971696046629148</v>
       </c>
       <c r="E25">
-        <v>0.02824359318546166</v>
+        <v>1.721646044870155</v>
       </c>
       <c r="F25">
-        <v>8.675517655382492</v>
+        <v>0.5501702849832242</v>
       </c>
       <c r="G25">
-        <v>0.0006590549536840936</v>
+        <v>0.0007739168630903416</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>5.619812071460842</v>
+        <v>3.538538908733074</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.656776291289233</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.465924197629732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2702896093195903</v>
+        <v>0.1424309830611179</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04326708700625659</v>
+        <v>0.01889303280111676</v>
       </c>
       <c r="E2">
-        <v>1.415859042727931</v>
+        <v>0.4200039547778118</v>
       </c>
       <c r="F2">
-        <v>0.4856273651284795</v>
+        <v>0.5715119509656148</v>
       </c>
       <c r="G2">
-        <v>0.0007808302909143008</v>
+        <v>0.002399937969873476</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.987131246801653</v>
+        <v>0.9249930234918793</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.326241624690425</v>
+        <v>1.884415816162544</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2362391362285905</v>
+        <v>0.1329354449600402</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03889800256585119</v>
+        <v>0.0173559648507009</v>
       </c>
       <c r="E3">
-        <v>1.214905895688673</v>
+        <v>0.3663719208139753</v>
       </c>
       <c r="F3">
-        <v>0.445381421773078</v>
+        <v>0.5684556150569691</v>
       </c>
       <c r="G3">
-        <v>0.0007856697700256879</v>
+        <v>0.002402962039085947</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.615071306581882</v>
+        <v>0.8073602199524146</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.243147442169658</v>
+        <v>1.889073003670148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155058677475239</v>
+        <v>0.1271754698534835</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03621365809316757</v>
+        <v>0.01640739851892903</v>
       </c>
       <c r="E4">
-        <v>1.093926123299156</v>
+        <v>0.3335355837860021</v>
       </c>
       <c r="F4">
-        <v>0.4221788531119444</v>
+        <v>0.5671103370397077</v>
       </c>
       <c r="G4">
-        <v>0.0007887227876530441</v>
+        <v>0.002404915252850254</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.387075008842942</v>
+        <v>0.7348557412867649</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.197144444268105</v>
+        <v>1.893720075786547</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070961317126603</v>
+        <v>0.1248460581070532</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03511899568087529</v>
+        <v>0.01601967437754581</v>
       </c>
       <c r="E5">
-        <v>1.04513838573105</v>
+        <v>0.3201762648283619</v>
       </c>
       <c r="F5">
-        <v>0.4130734044280118</v>
+        <v>0.5666952170492152</v>
       </c>
       <c r="G5">
-        <v>0.0007899881722967517</v>
+        <v>0.002405735528705621</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.294230894287665</v>
+        <v>0.705241098068484</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.179564807419951</v>
+        <v>1.896061449082936</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.205701945335008</v>
+        <v>0.1244603418153503</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03493717208827007</v>
+        <v>0.01595522300728192</v>
       </c>
       <c r="E6">
-        <v>1.037065618730281</v>
+        <v>0.3179592196631091</v>
       </c>
       <c r="F6">
-        <v>0.4115817508334416</v>
+        <v>0.5666343100681033</v>
       </c>
       <c r="G6">
-        <v>0.0007901995929927148</v>
+        <v>0.002405873206197518</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.27881689995283</v>
+        <v>0.7003195116135146</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.176713558472045</v>
+        <v>1.896477215769778</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.215392297962623</v>
+        <v>0.1271439822319138</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03619889863364989</v>
+        <v>0.01640217425410384</v>
       </c>
       <c r="E7">
-        <v>1.093266196211516</v>
+        <v>0.3333553297017033</v>
       </c>
       <c r="F7">
-        <v>0.4220546752100631</v>
+        <v>0.5671042003880302</v>
       </c>
       <c r="G7">
-        <v>0.0007887397660115147</v>
+        <v>0.002404926216785786</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.385822671776424</v>
+        <v>0.7344566233915941</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.19690275455082</v>
+        <v>1.893749842283427</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2585101353493116</v>
+        <v>0.1391424072705689</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04176076278638874</v>
+        <v>0.0183640663347262</v>
       </c>
       <c r="E8">
-        <v>1.346012594891846</v>
+        <v>0.4014909872328474</v>
       </c>
       <c r="F8">
-        <v>0.4714190155812972</v>
+        <v>0.5703475375382183</v>
       </c>
       <c r="G8">
-        <v>0.0007824824823959166</v>
+        <v>0.002400960703882747</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.858722020677277</v>
+        <v>0.8844915526001955</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.296490374339925</v>
+        <v>1.885649498655312</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3446629811317194</v>
+        <v>0.1632243973908203</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05267205618878279</v>
+        <v>0.02217206104761971</v>
       </c>
       <c r="E9">
-        <v>1.865404277809702</v>
+        <v>0.5359409132534978</v>
       </c>
       <c r="F9">
-        <v>0.5816399268477781</v>
+        <v>0.5809480528114079</v>
       </c>
       <c r="G9">
-        <v>0.0007708223148883348</v>
+        <v>0.002393945807026272</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3.792015542963213</v>
+        <v>1.176466239640433</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.536228966244522</v>
+        <v>1.884033576832849</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4092665699920275</v>
+        <v>0.1812500598049525</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06072083620320967</v>
+        <v>0.02494456304113157</v>
       </c>
       <c r="E10">
-        <v>2.26884289692633</v>
+        <v>0.6353656995773207</v>
       </c>
       <c r="F10">
-        <v>0.6730072623280563</v>
+        <v>0.5913571351865841</v>
       </c>
       <c r="G10">
-        <v>0.0007625712265195983</v>
+        <v>0.002389251094958128</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.485036681802001</v>
+        <v>1.389578191088447</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.746549213920304</v>
+        <v>1.891667137777148</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.439020687167158</v>
+        <v>0.1895217846585382</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06439720016564365</v>
+        <v>0.02620011994223148</v>
       </c>
       <c r="E11">
-        <v>2.459042501145305</v>
+        <v>0.6807663500209316</v>
       </c>
       <c r="F11">
-        <v>0.7173797931815358</v>
+        <v>0.5966694471764811</v>
       </c>
       <c r="G11">
-        <v>0.0007588719905472496</v>
+        <v>0.002387213961838104</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>4.802841464418805</v>
+        <v>1.486218391214663</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.851428640275174</v>
+        <v>1.897081795980483</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4503475565233828</v>
+        <v>0.192664276443125</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06579222642093185</v>
+        <v>0.02667472576647612</v>
       </c>
       <c r="E12">
-        <v>2.532213055282455</v>
+        <v>0.69798535328772</v>
       </c>
       <c r="F12">
-        <v>0.7346381809259981</v>
+        <v>0.5987646778957441</v>
       </c>
       <c r="G12">
-        <v>0.0007574776618496748</v>
+        <v>0.002386456636283207</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.923639495458929</v>
+        <v>1.522768681585262</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.892634591294268</v>
+        <v>1.89941356208746</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4479053417011443</v>
+        <v>0.1919870347215209</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06549164252697892</v>
+        <v>0.0265725490422497</v>
       </c>
       <c r="E13">
-        <v>2.5164002360995</v>
+        <v>0.6942757096186085</v>
       </c>
       <c r="F13">
-        <v>0.7309001390920429</v>
+        <v>0.5983097063092515</v>
       </c>
       <c r="G13">
-        <v>0.0007577776891885546</v>
+        <v>0.002386619114276583</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4.897601883475545</v>
+        <v>1.514898956214381</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.883691005827501</v>
+        <v>1.898898828119599</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4399513178973393</v>
+        <v>0.1897801164026589</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06451190788279604</v>
+        <v>0.02623918318774798</v>
       </c>
       <c r="E14">
-        <v>2.465038153447807</v>
+        <v>0.6821824195707649</v>
       </c>
       <c r="F14">
-        <v>0.7187902072416676</v>
+        <v>0.5968401448199785</v>
       </c>
       <c r="G14">
-        <v>0.0007587571562039839</v>
+        <v>0.002387151374043606</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>4.812769997760768</v>
+        <v>1.48922632010823</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.854787785562877</v>
+        <v>1.897267981124287</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4350872338827401</v>
+        <v>0.1884296350810075</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06391218852504466</v>
+        <v>0.02603487584173791</v>
       </c>
       <c r="E15">
-        <v>2.43373263945314</v>
+        <v>0.6747784768633522</v>
       </c>
       <c r="F15">
-        <v>0.7114334667342206</v>
+        <v>0.595950896866583</v>
       </c>
       <c r="G15">
-        <v>0.0007593579121361536</v>
+        <v>0.00238747923163163</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.760869643903277</v>
+        <v>1.473495156600393</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.837283096091198</v>
+        <v>1.896305742479768</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4073300154667407</v>
+        <v>0.1807109143098131</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06048093699462953</v>
+        <v>0.02486239270292145</v>
       </c>
       <c r="E16">
-        <v>2.256562538063307</v>
+        <v>0.6324022928535555</v>
       </c>
       <c r="F16">
-        <v>0.6701682173099925</v>
+        <v>0.5910216265279331</v>
       </c>
       <c r="G16">
-        <v>0.0007628139631141594</v>
+        <v>0.002389386202445432</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.464325763329612</v>
+        <v>1.38325626545452</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.739894146918488</v>
+        <v>1.891352534975681</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3904003430212271</v>
+        <v>0.1759940019030779</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05838028227333325</v>
+        <v>0.02414163809843473</v>
       </c>
       <c r="E17">
-        <v>2.149708257611792</v>
+        <v>0.6064513379587737</v>
       </c>
       <c r="F17">
-        <v>0.6456077353040826</v>
+        <v>0.5881459158409257</v>
       </c>
       <c r="G17">
-        <v>0.0007649471433693256</v>
+        <v>0.002390581246957709</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.28311602142935</v>
+        <v>1.327818432418269</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.682619512168799</v>
+        <v>1.888812801517446</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3806968014413883</v>
+        <v>0.1732877220365197</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05717339834720292</v>
+        <v>0.02372654742808322</v>
       </c>
       <c r="E18">
-        <v>2.088864034299874</v>
+        <v>0.5915410830662751</v>
       </c>
       <c r="F18">
-        <v>0.6317422029675299</v>
+        <v>0.5865461743056102</v>
       </c>
       <c r="G18">
-        <v>0.0007661792824751892</v>
+        <v>0.002391277882063796</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.179122899695528</v>
+        <v>1.295903380177492</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.650531931405283</v>
+        <v>1.887534690119907</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.377416975827586</v>
+        <v>0.1723725883682761</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0567649808982722</v>
+        <v>0.02358591450364855</v>
       </c>
       <c r="E19">
-        <v>2.068363680557539</v>
+        <v>0.5864954209367426</v>
       </c>
       <c r="F19">
-        <v>0.6270909196325789</v>
+        <v>0.5860138363090641</v>
       </c>
       <c r="G19">
-        <v>0.000766597392507779</v>
+        <v>0.002391515346105359</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.143950327094785</v>
+        <v>1.285092607378601</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.639809733202156</v>
+        <v>1.887133255144164</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3921989717605925</v>
+        <v>0.1764954263836529</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0586037551927916</v>
+        <v>0.02421841891092669</v>
       </c>
       <c r="E20">
-        <v>2.16101810507844</v>
+        <v>0.6092121857102626</v>
       </c>
       <c r="F20">
-        <v>0.6481948717077159</v>
+        <v>0.5884464170364225</v>
       </c>
       <c r="G20">
-        <v>0.000764719534488565</v>
+        <v>0.002390453072823903</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.302381304409153</v>
+        <v>1.333722862032459</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.688626826837492</v>
+        <v>1.889064239132495</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4422859299410504</v>
+        <v>0.190428067016299</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06479959566189564</v>
+        <v>0.02633712403493149</v>
       </c>
       <c r="E21">
-        <v>2.480091717947005</v>
+        <v>0.6857337691899801</v>
       </c>
       <c r="F21">
-        <v>0.7223343872928183</v>
+        <v>0.5972695178835039</v>
       </c>
       <c r="G21">
-        <v>0.0007584692979985296</v>
+        <v>0.002386994654430675</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.837674168031015</v>
+        <v>1.496768234329181</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.863235489006314</v>
+        <v>1.897739347986118</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.475371942212746</v>
+        <v>0.1995930570518851</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06886605427902737</v>
+        <v>0.02771687320128535</v>
       </c>
       <c r="E22">
-        <v>2.695411895716077</v>
+        <v>0.7359020089748896</v>
       </c>
       <c r="F22">
-        <v>0.7734718807295167</v>
+        <v>0.6035233234321566</v>
       </c>
       <c r="G22">
-        <v>0.0007544215255191487</v>
+        <v>0.002384816488276058</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.190202623838672</v>
+        <v>1.603063425620292</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.986131098386949</v>
+        <v>1.905049941096109</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4576786819316112</v>
+        <v>0.194696161680568</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06669387823939132</v>
+        <v>0.02698093793772927</v>
       </c>
       <c r="E23">
-        <v>2.579801579005078</v>
+        <v>0.7091112280774468</v>
       </c>
       <c r="F23">
-        <v>0.7459147817200886</v>
+        <v>0.6001407615152061</v>
       </c>
       <c r="G23">
-        <v>0.0007565789737522111</v>
+        <v>0.002385971527721918</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.001774828925249</v>
+        <v>1.546356304557946</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.919675913710591</v>
+        <v>1.900997308008812</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3913857201837061</v>
+        <v>0.1762687151220774</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05850272061478279</v>
+        <v>0.02418370854326213</v>
       </c>
       <c r="E24">
-        <v>2.155903106139888</v>
+        <v>0.6079639776877741</v>
       </c>
       <c r="F24">
-        <v>0.6470244380916483</v>
+        <v>0.5883103937009935</v>
       </c>
       <c r="G24">
-        <v>0.0007648224184632071</v>
+        <v>0.002390510990388764</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.293670894600154</v>
+        <v>1.331053603578709</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.685908314691233</v>
+        <v>1.888949997350636</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3211523252825117</v>
+        <v>0.1566508402819835</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04971696046629148</v>
+        <v>0.02114623748008171</v>
       </c>
       <c r="E25">
-        <v>1.721646044870155</v>
+        <v>0.499465285337223</v>
       </c>
       <c r="F25">
-        <v>0.5501702849832242</v>
+        <v>0.577622672651124</v>
       </c>
       <c r="G25">
-        <v>0.0007739168630903416</v>
+        <v>0.002395762528946031</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.538538908733074</v>
+        <v>1.097723150450975</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.465924197629732</v>
+        <v>1.882930549535928</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424309830611179</v>
+        <v>0.2702896093198603</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01889303280111676</v>
+        <v>0.04326708700632054</v>
       </c>
       <c r="E2">
-        <v>0.4200039547778118</v>
+        <v>1.415859042727959</v>
       </c>
       <c r="F2">
-        <v>0.5715119509656148</v>
+        <v>0.4856273651284653</v>
       </c>
       <c r="G2">
-        <v>0.002399937969873476</v>
+        <v>0.0007808302909154685</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9249930234918793</v>
+        <v>2.987131246801709</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.884415816162544</v>
+        <v>1.326241624690454</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329354449600402</v>
+        <v>0.2362391362285763</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0173559648507009</v>
+        <v>0.03889800256596487</v>
       </c>
       <c r="E3">
-        <v>0.3663719208139753</v>
+        <v>1.214905895688673</v>
       </c>
       <c r="F3">
-        <v>0.5684556150569691</v>
+        <v>0.445381421773078</v>
       </c>
       <c r="G3">
-        <v>0.002402962039085947</v>
+        <v>0.0007856697700833715</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8073602199524146</v>
+        <v>2.615071306582024</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.889073003670148</v>
+        <v>1.243147442169658</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271754698534835</v>
+        <v>0.2155058677476376</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01640739851892903</v>
+        <v>0.0362136580932173</v>
       </c>
       <c r="E4">
-        <v>0.3335355837860021</v>
+        <v>1.09392612329917</v>
       </c>
       <c r="F4">
-        <v>0.5671103370397077</v>
+        <v>0.4221788531119373</v>
       </c>
       <c r="G4">
-        <v>0.002404915252850254</v>
+        <v>0.0007887227876538212</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7348557412867649</v>
+        <v>2.387075008842999</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.893720075786547</v>
+        <v>1.197144444268019</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1248460581070532</v>
+        <v>0.2070961317127882</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01601967437754581</v>
+        <v>0.03511899568103161</v>
       </c>
       <c r="E5">
-        <v>0.3201762648283619</v>
+        <v>1.04513838573105</v>
       </c>
       <c r="F5">
-        <v>0.5666952170492152</v>
+        <v>0.4130734044280118</v>
       </c>
       <c r="G5">
-        <v>0.002405735528705621</v>
+        <v>0.0007899881722188207</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.705241098068484</v>
+        <v>2.294230894287693</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.896061449082936</v>
+        <v>1.179564807419951</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244603418153503</v>
+        <v>0.2057019453351216</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01595522300728192</v>
+        <v>0.0349371720880356</v>
       </c>
       <c r="E6">
-        <v>0.3179592196631091</v>
+        <v>1.037065618730324</v>
       </c>
       <c r="F6">
-        <v>0.5666343100681033</v>
+        <v>0.4115817508334416</v>
       </c>
       <c r="G6">
-        <v>0.002405873206197518</v>
+        <v>0.0007901995930703944</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7003195116135146</v>
+        <v>2.278816899952801</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.896477215769778</v>
+        <v>1.176713558471988</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271439822319138</v>
+        <v>0.2153922979625094</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01640217425410384</v>
+        <v>0.03619889863387016</v>
       </c>
       <c r="E7">
-        <v>0.3333553297017033</v>
+        <v>1.093266196211516</v>
       </c>
       <c r="F7">
-        <v>0.5671042003880302</v>
+        <v>0.4220546752100773</v>
       </c>
       <c r="G7">
-        <v>0.002404926216785786</v>
+        <v>0.0007887397660118574</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7344566233915941</v>
+        <v>2.385822671776396</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.893749842283427</v>
+        <v>1.196902754550877</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391424072705689</v>
+        <v>0.2585101353493542</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0183640663347262</v>
+        <v>0.04176076278632479</v>
       </c>
       <c r="E8">
-        <v>0.4014909872328474</v>
+        <v>1.346012594891846</v>
       </c>
       <c r="F8">
-        <v>0.5703475375382183</v>
+        <v>0.4714190155812972</v>
       </c>
       <c r="G8">
-        <v>0.002400960703882747</v>
+        <v>0.0007824824823978171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8844915526001955</v>
+        <v>2.858722020677334</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.885649498655312</v>
+        <v>1.296490374339925</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1632243973908203</v>
+        <v>0.3446629811318616</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02217206104761971</v>
+        <v>0.05267205618872595</v>
       </c>
       <c r="E9">
-        <v>0.5359409132534978</v>
+        <v>1.86540427780966</v>
       </c>
       <c r="F9">
-        <v>0.5809480528114079</v>
+        <v>0.5816399268477497</v>
       </c>
       <c r="G9">
-        <v>0.002393945807026272</v>
+        <v>0.0007708223149178313</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.176466239640433</v>
+        <v>3.792015542963213</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.884033576832849</v>
+        <v>1.536228966244494</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1812500598049525</v>
+        <v>0.4092665699919849</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02494456304113157</v>
+        <v>0.06072083620316704</v>
       </c>
       <c r="E10">
-        <v>0.6353656995773207</v>
+        <v>2.268842896926316</v>
       </c>
       <c r="F10">
-        <v>0.5913571351865841</v>
+        <v>0.6730072623280421</v>
       </c>
       <c r="G10">
-        <v>0.002389251094958128</v>
+        <v>0.0007625712264942575</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.389578191088447</v>
+        <v>4.485036681802114</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.891667137777148</v>
+        <v>1.746549213920304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1895217846585382</v>
+        <v>0.4390206871672717</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02620011994223148</v>
+        <v>0.06439720016552997</v>
       </c>
       <c r="E11">
-        <v>0.6807663500209316</v>
+        <v>2.459042501145319</v>
       </c>
       <c r="F11">
-        <v>0.5966694471764811</v>
+        <v>0.7173797931815642</v>
       </c>
       <c r="G11">
-        <v>0.002387213961838104</v>
+        <v>0.0007588719905477376</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.486218391214663</v>
+        <v>4.802841464418862</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.897081795980483</v>
+        <v>1.851428640275202</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.192664276443125</v>
+        <v>0.450347556523397</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02667472576647612</v>
+        <v>0.06579222642080396</v>
       </c>
       <c r="E12">
-        <v>0.69798535328772</v>
+        <v>2.532213055282469</v>
       </c>
       <c r="F12">
-        <v>0.5987646778957441</v>
+        <v>0.7346381809259981</v>
       </c>
       <c r="G12">
-        <v>0.002386456636283207</v>
+        <v>0.0007574776617952402</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.522768681585262</v>
+        <v>4.923639495458985</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.89941356208746</v>
+        <v>1.892634591294296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1919870347215209</v>
+        <v>0.447905341701258</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0265725490422497</v>
+        <v>0.06549164252709261</v>
       </c>
       <c r="E13">
-        <v>0.6942757096186085</v>
+        <v>2.516400236099514</v>
       </c>
       <c r="F13">
-        <v>0.5983097063092515</v>
+        <v>0.7309001390920145</v>
       </c>
       <c r="G13">
-        <v>0.002386619114276583</v>
+        <v>0.0007577776892167188</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.514898956214381</v>
+        <v>4.897601883475602</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.898898828119599</v>
+        <v>1.883691005827501</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1897801164026589</v>
+        <v>0.4399513178974388</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02623918318774798</v>
+        <v>0.06451190788256156</v>
       </c>
       <c r="E14">
-        <v>0.6821824195707649</v>
+        <v>2.465038153447779</v>
       </c>
       <c r="F14">
-        <v>0.5968401448199785</v>
+        <v>0.7187902072416534</v>
       </c>
       <c r="G14">
-        <v>0.002387151374043606</v>
+        <v>0.0007587571562595376</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.48922632010823</v>
+        <v>4.812769997760995</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.897267981124287</v>
+        <v>1.854787785562849</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1884296350810075</v>
+        <v>0.4350872338827401</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02603487584173791</v>
+        <v>0.06391218852493807</v>
       </c>
       <c r="E15">
-        <v>0.6747784768633522</v>
+        <v>2.433732639453126</v>
       </c>
       <c r="F15">
-        <v>0.595950896866583</v>
+        <v>0.7114334667342206</v>
       </c>
       <c r="G15">
-        <v>0.00238747923163163</v>
+        <v>0.0007593579121651581</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.473495156600393</v>
+        <v>4.760869643903391</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.896305742479768</v>
+        <v>1.837283096091227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1807109143098131</v>
+        <v>0.407330015466755</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02486239270292145</v>
+        <v>0.06048093699450874</v>
       </c>
       <c r="E16">
-        <v>0.6324022928535555</v>
+        <v>2.256562538063335</v>
       </c>
       <c r="F16">
-        <v>0.5910216265279331</v>
+        <v>0.6701682173099783</v>
       </c>
       <c r="G16">
-        <v>0.002389386202445432</v>
+        <v>0.0007628139631420624</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.38325626545452</v>
+        <v>4.464325763329612</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.891352534975681</v>
+        <v>1.739894146918431</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1759940019030779</v>
+        <v>0.3904003430211134</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02414163809843473</v>
+        <v>0.05838028227333325</v>
       </c>
       <c r="E17">
-        <v>0.6064513379587737</v>
+        <v>2.149708257611749</v>
       </c>
       <c r="F17">
-        <v>0.5881459158409257</v>
+        <v>0.6456077353040826</v>
       </c>
       <c r="G17">
-        <v>0.002390581246957709</v>
+        <v>0.0007649471433434455</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.327818432418269</v>
+        <v>4.28311602142935</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.888812801517446</v>
+        <v>1.682619512168827</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1732877220365197</v>
+        <v>0.3806968014415304</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02372654742808322</v>
+        <v>0.05717339834721002</v>
       </c>
       <c r="E18">
-        <v>0.5915410830662751</v>
+        <v>2.088864034299888</v>
       </c>
       <c r="F18">
-        <v>0.5865461743056102</v>
+        <v>0.6317422029675299</v>
       </c>
       <c r="G18">
-        <v>0.002391277882063796</v>
+        <v>0.0007661792825032634</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.295903380177492</v>
+        <v>4.179122899695415</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.887534690119907</v>
+        <v>1.650531931405283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1723725883682761</v>
+        <v>0.3774169758276003</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02358591450364855</v>
+        <v>0.05676498089844983</v>
       </c>
       <c r="E19">
-        <v>0.5864954209367426</v>
+        <v>2.068363680557539</v>
       </c>
       <c r="F19">
-        <v>0.5860138363090641</v>
+        <v>0.6270909196325647</v>
       </c>
       <c r="G19">
-        <v>0.002391515346105359</v>
+        <v>0.0007665973924800239</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.285092607378601</v>
+        <v>4.143950327095013</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.887133255144164</v>
+        <v>1.639809733202213</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1764954263836529</v>
+        <v>0.3921989717605641</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02421841891092669</v>
+        <v>0.05860375519284133</v>
       </c>
       <c r="E20">
-        <v>0.6092121857102626</v>
+        <v>2.161018105078426</v>
       </c>
       <c r="F20">
-        <v>0.5884464170364225</v>
+        <v>0.6481948717077017</v>
       </c>
       <c r="G20">
-        <v>0.002390453072823903</v>
+        <v>0.0007647195344599053</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.333722862032459</v>
+        <v>4.302381304409266</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.889064239132495</v>
+        <v>1.68862682683752</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.190428067016299</v>
+        <v>0.4422859299411641</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02633712403493149</v>
+        <v>0.06479959566212301</v>
       </c>
       <c r="E21">
-        <v>0.6857337691899801</v>
+        <v>2.480091717947005</v>
       </c>
       <c r="F21">
-        <v>0.5972695178835039</v>
+        <v>0.7223343872928183</v>
       </c>
       <c r="G21">
-        <v>0.002386994654430675</v>
+        <v>0.0007584692979994037</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.496768234329181</v>
+        <v>4.837674168031015</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.897739347986118</v>
+        <v>1.863235489006257</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1995930570518851</v>
+        <v>0.4753719422126181</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02771687320128535</v>
+        <v>0.06886605427902737</v>
       </c>
       <c r="E22">
-        <v>0.7359020089748896</v>
+        <v>2.695411895716063</v>
       </c>
       <c r="F22">
-        <v>0.6035233234321566</v>
+        <v>0.7734718807295167</v>
       </c>
       <c r="G22">
-        <v>0.002384816488276058</v>
+        <v>0.0007544215255184131</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.603063425620292</v>
+        <v>5.190202623838729</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.905049941096109</v>
+        <v>1.986131098386977</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.194696161680568</v>
+        <v>0.4576786819315259</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02698093793772927</v>
+        <v>0.06669387823955475</v>
       </c>
       <c r="E23">
-        <v>0.7091112280774468</v>
+        <v>2.579801579005093</v>
       </c>
       <c r="F23">
-        <v>0.6001407615152061</v>
+        <v>0.7459147817201028</v>
       </c>
       <c r="G23">
-        <v>0.002385971527721918</v>
+        <v>0.0007565789737807104</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.546356304557946</v>
+        <v>5.001774828925306</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.900997308008812</v>
+        <v>1.91967591371062</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1762687151220774</v>
+        <v>0.3913857201837629</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02418370854326213</v>
+        <v>0.05850272061483963</v>
       </c>
       <c r="E24">
-        <v>0.6079639776877741</v>
+        <v>2.155903106139903</v>
       </c>
       <c r="F24">
-        <v>0.5883103937009935</v>
+        <v>0.6470244380916483</v>
       </c>
       <c r="G24">
-        <v>0.002390510990388764</v>
+        <v>0.000764822418438012</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.331053603578709</v>
+        <v>4.293670894600211</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.888949997350636</v>
+        <v>1.685908314691204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1566508402819835</v>
+        <v>0.3211523252826112</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02114623748008171</v>
+        <v>0.04971696046595753</v>
       </c>
       <c r="E25">
-        <v>0.499465285337223</v>
+        <v>1.72164604487017</v>
       </c>
       <c r="F25">
-        <v>0.577622672651124</v>
+        <v>0.5501702849832384</v>
       </c>
       <c r="G25">
-        <v>0.002395762528946031</v>
+        <v>0.0007739168630906657</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.097723150450975</v>
+        <v>3.53853890873313</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.882930549535928</v>
+        <v>1.465924197629789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2702896093198603</v>
+        <v>0.1649021707620335</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04326708700632054</v>
+        <v>0.03014618938799174</v>
       </c>
       <c r="E2">
-        <v>1.415859042727959</v>
+        <v>0.2961009627281967</v>
       </c>
       <c r="F2">
-        <v>0.4856273651284653</v>
+        <v>0.9527341862821999</v>
       </c>
       <c r="G2">
-        <v>0.0007808302909154685</v>
+        <v>0.8883451094072541</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004282003038948989</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.008533444300768078</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5699023806360373</v>
       </c>
       <c r="K2">
-        <v>2.987131246801709</v>
+        <v>0.3813687873486558</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.150813429448789</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.326241624690454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8039941281396068</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2362391362285763</v>
+        <v>0.1437009899386084</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03889800256596487</v>
+        <v>0.02900256502701026</v>
       </c>
       <c r="E3">
-        <v>1.214905895688673</v>
+        <v>0.2596602377342876</v>
       </c>
       <c r="F3">
-        <v>0.445381421773078</v>
+        <v>0.8698080650696198</v>
       </c>
       <c r="G3">
-        <v>0.0007856697700833715</v>
+        <v>0.8099588840853613</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.877731359734014E-05</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01040336830755839</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5386751448564837</v>
       </c>
       <c r="K3">
-        <v>2.615071306582024</v>
+        <v>0.3864905277055826</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.876742520676061</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.243147442169658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6989019847457882</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2155058677476376</v>
+        <v>0.1304013546919549</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0362136580932173</v>
+        <v>0.02829119100611521</v>
       </c>
       <c r="E4">
-        <v>1.09392612329917</v>
+        <v>0.237304668048786</v>
       </c>
       <c r="F4">
-        <v>0.4221788531119373</v>
+        <v>0.8197223873450383</v>
       </c>
       <c r="G4">
-        <v>0.0007887227876538212</v>
+        <v>0.7625734058051563</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.645511603878049E-05</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01172026645890645</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5199620654146457</v>
       </c>
       <c r="K4">
-        <v>2.387075008842999</v>
+        <v>0.3896184751185388</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.709707804651885</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.197144444268019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.634689560124805</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2070961317127882</v>
+        <v>0.1243247544371684</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03511899568103161</v>
+        <v>0.02802866661554049</v>
       </c>
       <c r="E5">
-        <v>1.04513838573105</v>
+        <v>0.2280319701675069</v>
       </c>
       <c r="F5">
-        <v>0.4130734044280118</v>
+        <v>0.7983861744134089</v>
       </c>
       <c r="G5">
-        <v>0.0007899881722188207</v>
+        <v>0.7421725519203193</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0001071838698833982</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01238702738010167</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5117915525572272</v>
       </c>
       <c r="K5">
-        <v>2.294230894287693</v>
+        <v>0.3901403015629104</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.644074497497485</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.179564807419951</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6089691080713067</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2057019453351216</v>
+        <v>0.1225944103873502</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0349371720880356</v>
+        <v>0.02802159193370102</v>
       </c>
       <c r="E6">
-        <v>1.037065618730324</v>
+        <v>0.2262943843272964</v>
       </c>
       <c r="F6">
-        <v>0.4115817508334416</v>
+        <v>0.7934928877089362</v>
       </c>
       <c r="G6">
-        <v>0.0007901995930703944</v>
+        <v>0.7372587245464217</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0001227818527351765</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01261648319289144</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5096454914129112</v>
       </c>
       <c r="K6">
-        <v>2.278816899952801</v>
+        <v>0.3893172450598854</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.635841888744011</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.176713558471988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6051673746259283</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2153922979625094</v>
+        <v>0.1283514662229948</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03619889863387016</v>
+        <v>0.02838856266688694</v>
       </c>
       <c r="E7">
-        <v>1.093266196211516</v>
+        <v>0.2366382198243215</v>
       </c>
       <c r="F7">
-        <v>0.4220546752100773</v>
+        <v>0.8157152343343341</v>
       </c>
       <c r="G7">
-        <v>0.0007887397660118574</v>
+        <v>0.7581013596926738</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.73538408631191E-05</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0120297575135675</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5176802320280558</v>
       </c>
       <c r="K7">
-        <v>2.385822671776396</v>
+        <v>0.3871430349130076</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.71607751628855</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.196902754550877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6356171545639029</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2585101353493542</v>
+        <v>0.1550193442333097</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04176076278632479</v>
+        <v>0.02989152975048626</v>
       </c>
       <c r="E8">
-        <v>1.346012594891846</v>
+        <v>0.2828054236450797</v>
       </c>
       <c r="F8">
-        <v>0.4714190155812972</v>
+        <v>0.9190351151900842</v>
       </c>
       <c r="G8">
-        <v>0.0007824824823978171</v>
+        <v>0.8555960563028435</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002280025626277826</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.009503264726318683</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5561697644891268</v>
       </c>
       <c r="K8">
-        <v>2.858722020677334</v>
+        <v>0.3798868039366354</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.065716779429323</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.296490374339925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7693882198741946</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3446629811318616</v>
+        <v>0.2085817473207783</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05267205618872595</v>
+        <v>0.03258102125360907</v>
       </c>
       <c r="E9">
-        <v>1.86540427780966</v>
+        <v>0.3747584961778827</v>
       </c>
       <c r="F9">
-        <v>0.5816399268477497</v>
+        <v>1.135951447473388</v>
       </c>
       <c r="G9">
-        <v>0.0007708223149178313</v>
+        <v>1.061256258358725</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002939671679775602</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.005503870038680247</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6396515592602015</v>
       </c>
       <c r="K9">
-        <v>3.792015542963213</v>
+        <v>0.3699224161773813</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.750100352927802</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.536228966244494</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.032505560113336</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4092665699919849</v>
+        <v>0.2491647957095608</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06072083620316704</v>
+        <v>0.03540768384859305</v>
       </c>
       <c r="E10">
-        <v>2.268842896926316</v>
+        <v>0.4138130902999251</v>
       </c>
       <c r="F10">
-        <v>0.6730072623280421</v>
+        <v>1.27657965921486</v>
       </c>
       <c r="G10">
-        <v>0.0007625712264942575</v>
+        <v>1.189991347552564</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006496373878501771</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.003714461971832783</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6900737635969563</v>
       </c>
       <c r="K10">
-        <v>4.485036681802114</v>
+        <v>0.3547064874135266</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.272045110889792</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.746549213920304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.193134106025326</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4390206871672717</v>
+        <v>0.2980632066319657</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06439720016552997</v>
+        <v>0.04581071662845204</v>
       </c>
       <c r="E11">
-        <v>2.459042501145319</v>
+        <v>0.2253189926214176</v>
       </c>
       <c r="F11">
-        <v>0.7173797931815642</v>
+        <v>1.140870630615865</v>
       </c>
       <c r="G11">
-        <v>0.0007588719905477376</v>
+        <v>1.025287152109371</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02434444925821921</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.003819053771956682</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.600820743861405</v>
       </c>
       <c r="K11">
-        <v>4.802841464418862</v>
+        <v>0.2947761913125078</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.572404968766307</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.851428640275202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9716563767528044</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.450347556523397</v>
+        <v>0.3369482764606744</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06579222642080396</v>
+        <v>0.05593316795419412</v>
       </c>
       <c r="E12">
-        <v>2.532213055282469</v>
+        <v>0.1198618499068473</v>
       </c>
       <c r="F12">
-        <v>0.7346381809259981</v>
+        <v>1.008584064447291</v>
       </c>
       <c r="G12">
-        <v>0.0007574776617952402</v>
+        <v>0.8756220715467578</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0621629869246334</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003723052533787907</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5227122685921159</v>
       </c>
       <c r="K12">
-        <v>4.923639495458985</v>
+        <v>0.260525053060455</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.706320954826538</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.892634591294296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.771248002588905</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.447905341701258</v>
+        <v>0.3667918856217085</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06549164252709261</v>
+        <v>0.06640903749767091</v>
       </c>
       <c r="E13">
-        <v>2.516400236099514</v>
+        <v>0.07065330395359348</v>
       </c>
       <c r="F13">
-        <v>0.7309001390920145</v>
+        <v>0.8656317636158946</v>
       </c>
       <c r="G13">
-        <v>0.0007577776892167188</v>
+        <v>0.7225266189490469</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1168960722000918</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003861202722463375</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4452977837595711</v>
       </c>
       <c r="K13">
-        <v>4.897601883475602</v>
+        <v>0.2397864165108086</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.729939172459808</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.883691005827501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5789531042729195</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4399513178974388</v>
+        <v>0.3829077242134815</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.06451190788256156</v>
+        <v>0.07412843672638303</v>
       </c>
       <c r="E14">
-        <v>2.465038153447779</v>
+        <v>0.06951198838998796</v>
       </c>
       <c r="F14">
-        <v>0.7187902072416534</v>
+        <v>0.7616127587496067</v>
       </c>
       <c r="G14">
-        <v>0.0007587571562595376</v>
+        <v>0.6151576879295106</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.165525800720431</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.004157672841665239</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.391974052320947</v>
       </c>
       <c r="K14">
-        <v>4.812769997760995</v>
+        <v>0.232236503728274</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.699090517767502</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.854787785562849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4526577128931635</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4350872338827401</v>
+        <v>0.383413248610637</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.06391218852493807</v>
+        <v>0.07588394201582105</v>
       </c>
       <c r="E15">
-        <v>2.433732639453126</v>
+        <v>0.07330208818964046</v>
       </c>
       <c r="F15">
-        <v>0.7114334667342206</v>
+        <v>0.7323076118600937</v>
       </c>
       <c r="G15">
-        <v>0.0007593579121651581</v>
+        <v>0.5860442344719416</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1777699162214077</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004417527550237388</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3780400978206018</v>
       </c>
       <c r="K15">
-        <v>4.760869643903391</v>
+        <v>0.2318697010080786</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.670798003120467</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.837283096091227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.421390620113371</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.407330015466755</v>
+        <v>0.3572973017203793</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06048093699450874</v>
+        <v>0.07217563634330304</v>
       </c>
       <c r="E16">
-        <v>2.256562538063335</v>
+        <v>0.06857024903145614</v>
       </c>
       <c r="F16">
-        <v>0.6701682173099783</v>
+        <v>0.7009890710592686</v>
       </c>
       <c r="G16">
-        <v>0.0007628139631420624</v>
+        <v>0.5621074732807756</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1639242166947952</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.005256226533846942</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3718422183601575</v>
       </c>
       <c r="K16">
-        <v>4.464325763329612</v>
+        <v>0.2409567311590999</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.44278037580716</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.739894146918431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3991037738322873</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3904003430211134</v>
+        <v>0.3287045088999321</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05838028227333325</v>
+        <v>0.06514833585282531</v>
       </c>
       <c r="E17">
-        <v>2.149708257611749</v>
+        <v>0.05984641555079673</v>
       </c>
       <c r="F17">
-        <v>0.6456077353040826</v>
+        <v>0.7312471755008261</v>
       </c>
       <c r="G17">
-        <v>0.0007649471433434455</v>
+        <v>0.5993712863621283</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1256578325540545</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005789464618898954</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3948279437009461</v>
       </c>
       <c r="K17">
-        <v>4.28311602142935</v>
+        <v>0.2511510630135012</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.285282854021034</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.682619512168827</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4459309779349852</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3806968014415304</v>
+        <v>0.2979188246033004</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05717339834721002</v>
+        <v>0.05520847276084595</v>
       </c>
       <c r="E18">
-        <v>2.088864034299888</v>
+        <v>0.07591362674129876</v>
       </c>
       <c r="F18">
-        <v>0.6317422029675299</v>
+        <v>0.8237949544372185</v>
       </c>
       <c r="G18">
-        <v>0.0007661792825032634</v>
+        <v>0.7014623996292784</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.0728969481129127</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005739009614635471</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4493432084921238</v>
       </c>
       <c r="K18">
-        <v>4.179122899695415</v>
+        <v>0.2687141440198202</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.164224058282599</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.650531931405283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5684030665257538</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3774169758276003</v>
+        <v>0.2645955581905639</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05676498089844983</v>
+        <v>0.04541395557159689</v>
       </c>
       <c r="E19">
-        <v>2.068363680557539</v>
+        <v>0.1546040664017667</v>
       </c>
       <c r="F19">
-        <v>0.6270909196325647</v>
+        <v>0.9603472702840321</v>
       </c>
       <c r="G19">
-        <v>0.0007665973924800239</v>
+        <v>0.8513582426352428</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02840223144377774</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005774894432788003</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5263089055206081</v>
       </c>
       <c r="K19">
-        <v>4.143950327095013</v>
+        <v>0.29605312342985</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.097518990053231</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.639809733202213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7634219815376255</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3921989717605641</v>
+        <v>0.2324489300578705</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05860375519284133</v>
+        <v>0.03506029832044533</v>
       </c>
       <c r="E20">
-        <v>2.161018105078426</v>
+        <v>0.4005916953269377</v>
       </c>
       <c r="F20">
-        <v>0.6481948717077017</v>
+        <v>1.22672491217746</v>
       </c>
       <c r="G20">
-        <v>0.0007647195344599053</v>
+        <v>1.141705388748704</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00541163663652533</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004998036855506705</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6694042677811751</v>
       </c>
       <c r="K20">
-        <v>4.302381304409266</v>
+        <v>0.3512097663842866</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.157770011474042</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.68862682683752</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.153362089895893</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4422859299411641</v>
+        <v>0.2587221440195577</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.06479959566212301</v>
+        <v>0.03585586977122901</v>
       </c>
       <c r="E21">
-        <v>2.480091717947005</v>
+        <v>0.4759606880793825</v>
       </c>
       <c r="F21">
-        <v>0.7223343872928183</v>
+        <v>1.375344868954159</v>
       </c>
       <c r="G21">
-        <v>0.0007584692979994037</v>
+        <v>1.285960784825022</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.009028654487564125</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.003705297761931625</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7310160277769455</v>
       </c>
       <c r="K21">
-        <v>4.837674168031015</v>
+        <v>0.3513839457451589</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.549412273085011</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.863235489006257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.332756679718273</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4753719422126181</v>
+        <v>0.2800669069140014</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.06886605427902737</v>
+        <v>0.03664867886272205</v>
       </c>
       <c r="E22">
-        <v>2.695411895716063</v>
+        <v>0.5115216225244197</v>
       </c>
       <c r="F22">
-        <v>0.7734718807295167</v>
+        <v>1.467223036563354</v>
       </c>
       <c r="G22">
-        <v>0.0007544215255184131</v>
+        <v>1.374034591501072</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01172290258917102</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002747355318479805</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7682523661192988</v>
       </c>
       <c r="K22">
-        <v>5.190202623838729</v>
+        <v>0.3511802529104635</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.801197975763955</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.986131098386977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.430724756579522</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4576786819315259</v>
+        <v>0.2710763442871951</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.06669387823955475</v>
+        <v>0.03609024154538076</v>
       </c>
       <c r="E23">
-        <v>2.579801579005093</v>
+        <v>0.4931758420263321</v>
       </c>
       <c r="F23">
-        <v>0.7459147817201028</v>
+        <v>1.422385590543783</v>
       </c>
       <c r="G23">
-        <v>0.0007565789737807104</v>
+        <v>1.331794699820534</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01024718943208231</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002907679328165713</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7508150421468258</v>
       </c>
       <c r="K23">
-        <v>5.001774828925306</v>
+        <v>0.3540310875964536</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.657664469747601</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.91967591371062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.376794999391564</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3913857201837629</v>
+        <v>0.2327573736352662</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05850272061483963</v>
+        <v>0.03417590978344975</v>
       </c>
       <c r="E24">
-        <v>2.155903106139903</v>
+        <v>0.4232308494399888</v>
       </c>
       <c r="F24">
-        <v>0.6470244380916483</v>
+        <v>1.249274884884912</v>
       </c>
       <c r="G24">
-        <v>0.000764822418438012</v>
+        <v>1.167510891200976</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.005492633835715077</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004446073651750204</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6826057076636971</v>
       </c>
       <c r="K24">
-        <v>4.293670894600211</v>
+        <v>0.3606032568447795</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.133649469730898</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.685908314691204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.176628357425415</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3211523252826112</v>
+        <v>0.1907293220925084</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04971696046595753</v>
+        <v>0.03205752236983983</v>
       </c>
       <c r="E25">
-        <v>1.72164604487017</v>
+        <v>0.3487942884813933</v>
       </c>
       <c r="F25">
-        <v>0.5501702849832384</v>
+        <v>1.069582373172892</v>
       </c>
       <c r="G25">
-        <v>0.0007739168630906657</v>
+        <v>0.9971426404835455</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001924505731700332</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.00692101249842203</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6126622528946939</v>
       </c>
       <c r="K25">
-        <v>3.53853890873313</v>
+        <v>0.3682924562508454</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.576787085529077</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.465924197629789</v>
+        <v>0.9632585924660404</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1649021707620335</v>
+        <v>0.1503462763451182</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03014618938799174</v>
+        <v>0.03138469666823696</v>
       </c>
       <c r="E2">
-        <v>0.2961009627281967</v>
+        <v>0.2890366484634228</v>
       </c>
       <c r="F2">
-        <v>0.9527341862821999</v>
+        <v>0.9119718197850233</v>
       </c>
       <c r="G2">
-        <v>0.8883451094072541</v>
+        <v>0.8194974189840281</v>
       </c>
       <c r="H2">
-        <v>0.0004282003038948989</v>
+        <v>0.0004857356113299183</v>
       </c>
       <c r="I2">
-        <v>0.008533444300768078</v>
+        <v>0.004975621333641378</v>
       </c>
       <c r="J2">
-        <v>0.5699023806360373</v>
+        <v>0.5918449904799559</v>
       </c>
       <c r="K2">
-        <v>0.3813687873486558</v>
+        <v>0.3184454143813458</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1477991462256441</v>
       </c>
       <c r="M2">
-        <v>2.150813429448789</v>
+        <v>0.09488252730432478</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8039941281396068</v>
+        <v>2.209812599456711</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8188083426283441</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1437009899386084</v>
+        <v>0.1349549232400733</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02900256502701026</v>
+        <v>0.0297480773054275</v>
       </c>
       <c r="E3">
-        <v>0.2596602377342876</v>
+        <v>0.2545681610293329</v>
       </c>
       <c r="F3">
-        <v>0.8698080650696198</v>
+        <v>0.8380152248760879</v>
       </c>
       <c r="G3">
-        <v>0.8099588840853613</v>
+        <v>0.7519694541622783</v>
       </c>
       <c r="H3">
-        <v>1.877731359734014E-05</v>
+        <v>3.799949176030992E-05</v>
       </c>
       <c r="I3">
-        <v>0.01040336830755839</v>
+        <v>0.006113954811325151</v>
       </c>
       <c r="J3">
-        <v>0.5386751448564837</v>
+        <v>0.5618235132981511</v>
       </c>
       <c r="K3">
-        <v>0.3864905277055826</v>
+        <v>0.3264410226321406</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1534996917053277</v>
       </c>
       <c r="M3">
-        <v>1.876742520676061</v>
+        <v>0.09684898826823485</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6989019847457882</v>
+        <v>1.917288268887461</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7102778553392923</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1304013546919549</v>
+        <v>0.1251961568208912</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02829119100611521</v>
+        <v>0.02874206527408063</v>
       </c>
       <c r="E4">
-        <v>0.237304668048786</v>
+        <v>0.2333883935067149</v>
       </c>
       <c r="F4">
-        <v>0.8197223873450383</v>
+        <v>0.793254419629065</v>
       </c>
       <c r="G4">
-        <v>0.7625734058051563</v>
+        <v>0.7113144634948583</v>
       </c>
       <c r="H4">
-        <v>3.645511603878049E-05</v>
+        <v>1.522572621670548E-05</v>
       </c>
       <c r="I4">
-        <v>0.01172026645890645</v>
+        <v>0.006940055807691081</v>
       </c>
       <c r="J4">
-        <v>0.5199620654146457</v>
+        <v>0.5434725841137578</v>
       </c>
       <c r="K4">
-        <v>0.3896184751185388</v>
+        <v>0.3313307575776552</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1571498552863755</v>
       </c>
       <c r="M4">
-        <v>1.709707804651885</v>
+        <v>0.0983971325092714</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.634689560124805</v>
+        <v>1.739146213522275</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6439793792671082</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1243247544371684</v>
+        <v>0.1206630670021838</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02802866661554049</v>
+        <v>0.02835938154668938</v>
       </c>
       <c r="E5">
-        <v>0.2280319701675069</v>
+        <v>0.2246119278294643</v>
       </c>
       <c r="F5">
-        <v>0.7983861744134089</v>
+        <v>0.7742253217195838</v>
       </c>
       <c r="G5">
-        <v>0.7421725519203193</v>
+        <v>0.6938853306240844</v>
       </c>
       <c r="H5">
-        <v>0.0001071838698833982</v>
+        <v>6.545368538501961E-05</v>
       </c>
       <c r="I5">
-        <v>0.01238702738010167</v>
+        <v>0.00740483315184548</v>
       </c>
       <c r="J5">
-        <v>0.5117915525572272</v>
+        <v>0.5354552123230434</v>
       </c>
       <c r="K5">
-        <v>0.3901403015629104</v>
+        <v>0.3327608323293507</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.15837285750899</v>
       </c>
       <c r="M5">
-        <v>1.644074497497485</v>
+        <v>0.09899714306099039</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6089691080713067</v>
+        <v>1.668764464807538</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.617362168316923</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1225944103873502</v>
+        <v>0.1193207586517246</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02802159193370102</v>
+        <v>0.02832988326980157</v>
       </c>
       <c r="E6">
-        <v>0.2262943843272964</v>
+        <v>0.2229871797350356</v>
       </c>
       <c r="F6">
-        <v>0.7934928877089362</v>
+        <v>0.7699339943445267</v>
       </c>
       <c r="G6">
-        <v>0.7372587245464217</v>
+        <v>0.689729261641375</v>
       </c>
       <c r="H6">
-        <v>0.0001227818527351765</v>
+        <v>7.736950615688798E-05</v>
       </c>
       <c r="I6">
-        <v>0.01261648319289144</v>
+        <v>0.007611573413845107</v>
       </c>
       <c r="J6">
-        <v>0.5096454914129112</v>
+        <v>0.5334465894299427</v>
       </c>
       <c r="K6">
-        <v>0.3893172450598854</v>
+        <v>0.3323218662833813</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1582123043719879</v>
       </c>
       <c r="M6">
-        <v>1.635841888744011</v>
+        <v>0.09895965123829686</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6051673746259283</v>
+        <v>1.659401955427597</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.6133462102611134</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1283514662229948</v>
+        <v>0.1239863241156627</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02838856266688694</v>
+        <v>0.02892666583431946</v>
       </c>
       <c r="E7">
-        <v>0.2366382198243215</v>
+        <v>0.232892814475079</v>
       </c>
       <c r="F7">
-        <v>0.8157152343343341</v>
+        <v>0.7872667285854362</v>
       </c>
       <c r="G7">
-        <v>0.7581013596926738</v>
+        <v>0.7106336937186057</v>
       </c>
       <c r="H7">
-        <v>3.73538408631191E-05</v>
+        <v>1.611093775144568E-05</v>
       </c>
       <c r="I7">
-        <v>0.0120297575135675</v>
+        <v>0.007280477421809373</v>
       </c>
       <c r="J7">
-        <v>0.5176802320280558</v>
+        <v>0.53372196938966</v>
       </c>
       <c r="K7">
-        <v>0.3871430349130076</v>
+        <v>0.3290483449548027</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1559612856310704</v>
       </c>
       <c r="M7">
-        <v>1.71607751628855</v>
+        <v>0.0978800850716075</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6356171545639029</v>
+        <v>1.74254470319417</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6443862499196129</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1550193442333097</v>
+        <v>0.1444915323520917</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02989152975048626</v>
+        <v>0.03128348300410622</v>
       </c>
       <c r="E8">
-        <v>0.2828054236450797</v>
+        <v>0.2768126684218615</v>
       </c>
       <c r="F8">
-        <v>0.9190351151900842</v>
+        <v>0.8735269448694822</v>
       </c>
       <c r="G8">
-        <v>0.8555960563028435</v>
+        <v>0.8016189189545457</v>
       </c>
       <c r="H8">
-        <v>0.0002280025626277826</v>
+        <v>0.0002717348801428709</v>
       </c>
       <c r="I8">
-        <v>0.009503264726318683</v>
+        <v>0.005752298801081857</v>
       </c>
       <c r="J8">
-        <v>0.5561697644891268</v>
+        <v>0.5533901409207118</v>
       </c>
       <c r="K8">
-        <v>0.3798868039366354</v>
+        <v>0.3174009713486683</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1479396885410704</v>
       </c>
       <c r="M8">
-        <v>2.065716779429323</v>
+        <v>0.09442436014237288</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7693882198741946</v>
+        <v>2.110438827445705</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7816608408823242</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2085817473207783</v>
+        <v>0.1834507438884998</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03258102125360907</v>
+        <v>0.03536995840403634</v>
       </c>
       <c r="E9">
-        <v>0.3747584961778827</v>
+        <v>0.3635991973198429</v>
       </c>
       <c r="F9">
-        <v>1.135951447473388</v>
+        <v>1.063802405277656</v>
       </c>
       <c r="G9">
-        <v>1.061256258358725</v>
+        <v>0.982767768261354</v>
       </c>
       <c r="H9">
-        <v>0.002939671679775602</v>
+        <v>0.00295957743939379</v>
       </c>
       <c r="I9">
-        <v>0.005503870038680247</v>
+        <v>0.003293820068342335</v>
       </c>
       <c r="J9">
-        <v>0.6396515592602015</v>
+        <v>0.6239242096335005</v>
       </c>
       <c r="K9">
-        <v>0.3699224161773813</v>
+        <v>0.2992345175056421</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1357305083616041</v>
       </c>
       <c r="M9">
-        <v>2.750100352927802</v>
+        <v>0.09163381683937999</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.032505560113336</v>
+        <v>2.841010610534084</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.053326263098434</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2491647957095608</v>
+        <v>0.2170597209523208</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03540768384859305</v>
+        <v>0.03997879202587384</v>
       </c>
       <c r="E10">
-        <v>0.4138130902999251</v>
+        <v>0.3999417763122608</v>
       </c>
       <c r="F10">
-        <v>1.27657965921486</v>
+        <v>1.172038816996775</v>
       </c>
       <c r="G10">
-        <v>1.189991347552564</v>
+        <v>1.116257460219742</v>
       </c>
       <c r="H10">
-        <v>0.006496373878501771</v>
+        <v>0.006361694033673704</v>
       </c>
       <c r="I10">
-        <v>0.003714461971832783</v>
+        <v>0.002406744682001083</v>
       </c>
       <c r="J10">
-        <v>0.6900737635969563</v>
+        <v>0.6211574889993443</v>
       </c>
       <c r="K10">
-        <v>0.3547064874135266</v>
+        <v>0.2790203660712613</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1252205851385941</v>
       </c>
       <c r="M10">
-        <v>3.272045110889792</v>
+        <v>0.08837431086948477</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.193134106025326</v>
+        <v>3.380399218335015</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.216936698255338</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2980632066319657</v>
+        <v>0.2777127118919509</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04581071662845204</v>
+        <v>0.05314483990441943</v>
       </c>
       <c r="E11">
-        <v>0.2253189926214176</v>
+        <v>0.2165755313081021</v>
       </c>
       <c r="F11">
-        <v>1.140870630615865</v>
+        <v>1.02616074794517</v>
       </c>
       <c r="G11">
-        <v>1.025287152109371</v>
+        <v>1.012044544531122</v>
       </c>
       <c r="H11">
-        <v>0.02434444925821921</v>
+        <v>0.02412751304028049</v>
       </c>
       <c r="I11">
-        <v>0.003819053771956682</v>
+        <v>0.002836143313104778</v>
       </c>
       <c r="J11">
-        <v>0.600820743861405</v>
+        <v>0.46676201486666</v>
       </c>
       <c r="K11">
-        <v>0.2947761913125078</v>
+        <v>0.237787391348018</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1108459183234052</v>
       </c>
       <c r="M11">
-        <v>3.572404968766307</v>
+        <v>0.07286703848555476</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9716563767528044</v>
+        <v>3.624268913043522</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.9838972301634286</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3369482764606744</v>
+        <v>0.327690349718921</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05593316795419412</v>
+        <v>0.06478997034469813</v>
       </c>
       <c r="E12">
-        <v>0.1198618499068473</v>
+        <v>0.1138852456679444</v>
       </c>
       <c r="F12">
-        <v>1.008584064447291</v>
+        <v>0.9007482169821515</v>
       </c>
       <c r="G12">
-        <v>0.8756220715467578</v>
+        <v>0.8950507513493449</v>
       </c>
       <c r="H12">
-        <v>0.0621629869246334</v>
+        <v>0.06193408412216428</v>
       </c>
       <c r="I12">
-        <v>0.003723052533787907</v>
+        <v>0.002787528621564839</v>
       </c>
       <c r="J12">
-        <v>0.5227122685921159</v>
+        <v>0.3774000663685086</v>
       </c>
       <c r="K12">
-        <v>0.260525053060455</v>
+        <v>0.2176334926876171</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.104987715847348</v>
       </c>
       <c r="M12">
-        <v>3.706320954826538</v>
+        <v>0.06404517903496298</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.771248002588905</v>
+        <v>3.713589561541767</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7761510278404131</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3667918856217085</v>
+        <v>0.367284639259978</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06640903749767091</v>
+        <v>0.07492525491149138</v>
       </c>
       <c r="E13">
-        <v>0.07065330395359348</v>
+        <v>0.06619031537876019</v>
       </c>
       <c r="F13">
-        <v>0.8656317636158946</v>
+        <v>0.7824881777810617</v>
       </c>
       <c r="G13">
-        <v>0.7225266189490469</v>
+        <v>0.7512671554408143</v>
       </c>
       <c r="H13">
-        <v>0.1168960722000918</v>
+        <v>0.1167090691874506</v>
       </c>
       <c r="I13">
-        <v>0.003861202722463375</v>
+        <v>0.002832592402254974</v>
       </c>
       <c r="J13">
-        <v>0.4452977837595711</v>
+        <v>0.3315064659896336</v>
       </c>
       <c r="K13">
-        <v>0.2397864165108086</v>
+        <v>0.2083866427972514</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1029027991706215</v>
       </c>
       <c r="M13">
-        <v>3.729939172459808</v>
+        <v>0.05903185673857925</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5789531042729195</v>
+        <v>3.704112344944463</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5793393412465306</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3829077242134815</v>
+        <v>0.3896466747441991</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07412843672638303</v>
+        <v>0.08130763827835352</v>
       </c>
       <c r="E14">
-        <v>0.06951198838998796</v>
+        <v>0.06556081843874306</v>
       </c>
       <c r="F14">
-        <v>0.7616127587496067</v>
+        <v>0.7019430616395965</v>
       </c>
       <c r="G14">
-        <v>0.6151576879295106</v>
+        <v>0.6417080827110055</v>
       </c>
       <c r="H14">
-        <v>0.165525800720431</v>
+        <v>0.1653834822227935</v>
       </c>
       <c r="I14">
-        <v>0.004157672841665239</v>
+        <v>0.003012400451414265</v>
       </c>
       <c r="J14">
-        <v>0.391974052320947</v>
+        <v>0.3142288488225944</v>
       </c>
       <c r="K14">
-        <v>0.232236503728274</v>
+        <v>0.2064851179780995</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.102751275724192</v>
       </c>
       <c r="M14">
-        <v>3.699090517767502</v>
+        <v>0.05737926892823597</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4526577128931635</v>
+        <v>3.654806638476771</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4509954124313751</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.383413248610637</v>
+        <v>0.391294657387192</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07588394201582105</v>
+        <v>0.08230748114862507</v>
       </c>
       <c r="E15">
-        <v>0.07330208818964046</v>
+        <v>0.06949036667110065</v>
       </c>
       <c r="F15">
-        <v>0.7323076118600937</v>
+        <v>0.6813643631484467</v>
       </c>
       <c r="G15">
-        <v>0.5860442344719416</v>
+        <v>0.6090557950780635</v>
       </c>
       <c r="H15">
-        <v>0.1777699162214077</v>
+        <v>0.1776474658263965</v>
       </c>
       <c r="I15">
-        <v>0.004417527550237388</v>
+        <v>0.003229221019596551</v>
       </c>
       <c r="J15">
-        <v>0.3780400978206018</v>
+        <v>0.3153259317448232</v>
       </c>
       <c r="K15">
-        <v>0.2318697010080786</v>
+        <v>0.2071050270418495</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1029410939512507</v>
       </c>
       <c r="M15">
-        <v>3.670798003120467</v>
+        <v>0.0574426777284206</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.421390620113371</v>
+        <v>3.623905766673261</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4194584299060793</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3572973017203793</v>
+        <v>0.3606140358592143</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07217563634330304</v>
+        <v>0.0755617799485151</v>
       </c>
       <c r="E16">
-        <v>0.06857024903145614</v>
+        <v>0.06564468208765639</v>
       </c>
       <c r="F16">
-        <v>0.7009890710592686</v>
+        <v>0.6756300294615585</v>
       </c>
       <c r="G16">
-        <v>0.5621074732807756</v>
+        <v>0.5599688656609629</v>
       </c>
       <c r="H16">
-        <v>0.1639242166947952</v>
+        <v>0.1638836754816992</v>
       </c>
       <c r="I16">
-        <v>0.005256226533846942</v>
+        <v>0.003739719032876287</v>
       </c>
       <c r="J16">
-        <v>0.3718422183601575</v>
+        <v>0.3656837079584108</v>
       </c>
       <c r="K16">
-        <v>0.2409567311590999</v>
+        <v>0.2150501495348682</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1044366225626043</v>
       </c>
       <c r="M16">
-        <v>3.44278037580716</v>
+        <v>0.06088999175185011</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3991037738322873</v>
+        <v>3.415435883378564</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3988437882853049</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3287045088999321</v>
+        <v>0.3264496396668619</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06514833585282531</v>
+        <v>0.06759789976673147</v>
       </c>
       <c r="E17">
-        <v>0.05984641555079673</v>
+        <v>0.0571969980529814</v>
       </c>
       <c r="F17">
-        <v>0.7312471755008261</v>
+        <v>0.7115969589039679</v>
       </c>
       <c r="G17">
-        <v>0.5993712863621283</v>
+        <v>0.5815649738513713</v>
       </c>
       <c r="H17">
-        <v>0.1256578325540545</v>
+        <v>0.1256490366573217</v>
       </c>
       <c r="I17">
-        <v>0.005789464618898954</v>
+        <v>0.004077990835643419</v>
       </c>
       <c r="J17">
-        <v>0.3948279437009461</v>
+        <v>0.4110767115654141</v>
       </c>
       <c r="K17">
-        <v>0.2511510630135012</v>
+        <v>0.2226991345764326</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1064115350174245</v>
       </c>
       <c r="M17">
-        <v>3.285282854021034</v>
+        <v>0.06417169622343355</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4459309779349852</v>
+        <v>3.278961024188447</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4478341936268109</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2979188246033004</v>
+        <v>0.2875075910135365</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05520847276084595</v>
+        <v>0.05776645208542419</v>
       </c>
       <c r="E18">
-        <v>0.07591362674129876</v>
+        <v>0.07246586461014282</v>
       </c>
       <c r="F18">
-        <v>0.8237949544372185</v>
+        <v>0.7971302365630777</v>
       </c>
       <c r="G18">
-        <v>0.7014623996292784</v>
+        <v>0.6664614763571848</v>
       </c>
       <c r="H18">
-        <v>0.0728969481129127</v>
+        <v>0.07290030850914064</v>
       </c>
       <c r="I18">
-        <v>0.005739009614635471</v>
+        <v>0.003904529944003698</v>
       </c>
       <c r="J18">
-        <v>0.4493432084921238</v>
+        <v>0.4705368694284147</v>
       </c>
       <c r="K18">
-        <v>0.2687141440198202</v>
+        <v>0.2343687508341401</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1103196272880664</v>
       </c>
       <c r="M18">
-        <v>3.164224058282599</v>
+        <v>0.06881382676733283</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5684030665257538</v>
+        <v>3.18788134106012</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5743378997644655</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2645955581905639</v>
+        <v>0.2456362686506992</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04541395557159689</v>
+        <v>0.04835286066544597</v>
       </c>
       <c r="E19">
-        <v>0.1546040664017667</v>
+        <v>0.1486329781351436</v>
       </c>
       <c r="F19">
-        <v>0.9603472702840321</v>
+        <v>0.9181852558772619</v>
       </c>
       <c r="G19">
-        <v>0.8513582426352428</v>
+        <v>0.7961165330712703</v>
       </c>
       <c r="H19">
-        <v>0.02840223144377774</v>
+        <v>0.02840499954868392</v>
       </c>
       <c r="I19">
-        <v>0.005774894432788003</v>
+        <v>0.004000691291548009</v>
       </c>
       <c r="J19">
-        <v>0.5263089055206081</v>
+        <v>0.5417562253858108</v>
       </c>
       <c r="K19">
-        <v>0.29605312342985</v>
+        <v>0.2512092138087256</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1164161671192598</v>
       </c>
       <c r="M19">
-        <v>3.097518990053231</v>
+        <v>0.07532130224903355</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7634219815376255</v>
+        <v>3.155326904956411</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.775406785712569</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2324489300578705</v>
+        <v>0.2019038163301445</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03506029832044533</v>
+        <v>0.03874558019607477</v>
       </c>
       <c r="E20">
-        <v>0.4005916953269377</v>
+        <v>0.387468452253529</v>
       </c>
       <c r="F20">
-        <v>1.22672491217746</v>
+        <v>1.142377965840566</v>
       </c>
       <c r="G20">
-        <v>1.141705388748704</v>
+        <v>1.057911309553162</v>
       </c>
       <c r="H20">
-        <v>0.00541163663652533</v>
+        <v>0.005346182301948499</v>
       </c>
       <c r="I20">
-        <v>0.004998036855506705</v>
+        <v>0.003599896130964453</v>
       </c>
       <c r="J20">
-        <v>0.6694042677811751</v>
+        <v>0.6427179280154434</v>
       </c>
       <c r="K20">
-        <v>0.3512097663842866</v>
+        <v>0.2808692307718257</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1266255626877619</v>
       </c>
       <c r="M20">
-        <v>3.157770011474042</v>
+        <v>0.08781883612501318</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.153362089895893</v>
+        <v>3.265981160945103</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.177017499470793</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2587221440195577</v>
+        <v>0.2299281088216389</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03585586977122901</v>
+        <v>0.0431244027403892</v>
       </c>
       <c r="E21">
-        <v>0.4759606880793825</v>
+        <v>0.4610665340109037</v>
       </c>
       <c r="F21">
-        <v>1.375344868954159</v>
+        <v>1.210649079243126</v>
       </c>
       <c r="G21">
-        <v>1.285960784825022</v>
+        <v>1.261603232406657</v>
       </c>
       <c r="H21">
-        <v>0.009028654487564125</v>
+        <v>0.008675022547127653</v>
       </c>
       <c r="I21">
-        <v>0.003705297761931625</v>
+        <v>0.002937901995148984</v>
       </c>
       <c r="J21">
-        <v>0.7310160277769455</v>
+        <v>0.5265599333359745</v>
       </c>
       <c r="K21">
-        <v>0.3513839457451589</v>
+        <v>0.265553056122533</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1193663914881347</v>
       </c>
       <c r="M21">
-        <v>3.549412273085011</v>
+        <v>0.085422580929162</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.332756679718273</v>
+        <v>3.638709417358825</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.353875045312364</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2800669069140014</v>
+        <v>0.2533820071446513</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03664867886272205</v>
+        <v>0.04664693352324178</v>
       </c>
       <c r="E22">
-        <v>0.5115216225244197</v>
+        <v>0.4959333311138465</v>
       </c>
       <c r="F22">
-        <v>1.467223036563354</v>
+        <v>1.246075362671277</v>
       </c>
       <c r="G22">
-        <v>1.374034591501072</v>
+        <v>1.397515975938063</v>
       </c>
       <c r="H22">
-        <v>0.01172290258917102</v>
+        <v>0.01112473922420784</v>
       </c>
       <c r="I22">
-        <v>0.002747355318479805</v>
+        <v>0.002257979806755017</v>
       </c>
       <c r="J22">
-        <v>0.7682523661192988</v>
+        <v>0.4484298626933167</v>
       </c>
       <c r="K22">
-        <v>0.3511802529104635</v>
+        <v>0.2551583506325734</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1148688881130635</v>
       </c>
       <c r="M22">
-        <v>3.801197975763955</v>
+        <v>0.08375578136859119</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.430724756579522</v>
+        <v>3.873067508194652</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.449066182660005</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2710763442871951</v>
+        <v>0.24149689085462</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03609024154538076</v>
+        <v>0.04425947239548833</v>
       </c>
       <c r="E23">
-        <v>0.4931758420263321</v>
+        <v>0.4775961895956655</v>
       </c>
       <c r="F23">
-        <v>1.422385590543783</v>
+        <v>1.237408184503593</v>
       </c>
       <c r="G23">
-        <v>1.331794699820534</v>
+        <v>1.319792483417132</v>
       </c>
       <c r="H23">
-        <v>0.01024718943208231</v>
+        <v>0.0097991765516405</v>
       </c>
       <c r="I23">
-        <v>0.002907679328165713</v>
+        <v>0.002218103045812825</v>
       </c>
       <c r="J23">
-        <v>0.7508150421468258</v>
+        <v>0.507230466598628</v>
       </c>
       <c r="K23">
-        <v>0.3540310875964536</v>
+        <v>0.2632079842644668</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1179954597559556</v>
       </c>
       <c r="M23">
-        <v>3.657664469747601</v>
+        <v>0.08576259455202973</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.376794999391564</v>
+        <v>3.745640391129484</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.397814547629821</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2327573736352662</v>
+        <v>0.2007870577190829</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03417590978344975</v>
+        <v>0.03779591502283708</v>
       </c>
       <c r="E24">
-        <v>0.4232308494399888</v>
+        <v>0.4093645160895747</v>
       </c>
       <c r="F24">
-        <v>1.249274884884912</v>
+        <v>1.162013778386779</v>
       </c>
       <c r="G24">
-        <v>1.167510891200976</v>
+        <v>1.079203999200089</v>
       </c>
       <c r="H24">
-        <v>0.005492633835715077</v>
+        <v>0.005425337783228401</v>
       </c>
       <c r="I24">
-        <v>0.004446073651750204</v>
+        <v>0.002964114869312695</v>
       </c>
       <c r="J24">
-        <v>0.6826057076636971</v>
+        <v>0.6552719271663392</v>
       </c>
       <c r="K24">
-        <v>0.3606032568447795</v>
+        <v>0.2867866881112882</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.12876542825496</v>
       </c>
       <c r="M24">
-        <v>3.133649469730898</v>
+        <v>0.09011011098771782</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.176628357425415</v>
+        <v>3.247061859072346</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.201547620526824</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1907293220925084</v>
+        <v>0.1696722053471262</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03205752236983983</v>
+        <v>0.03430892815284281</v>
       </c>
       <c r="E25">
-        <v>0.3487942884813933</v>
+        <v>0.3391181058702131</v>
       </c>
       <c r="F25">
-        <v>1.069582373172892</v>
+        <v>1.009753015929874</v>
       </c>
       <c r="G25">
-        <v>0.9971426404835455</v>
+        <v>0.9221567969812838</v>
       </c>
       <c r="H25">
-        <v>0.001924505731700332</v>
+        <v>0.001974033515585338</v>
       </c>
       <c r="I25">
-        <v>0.00692101249842203</v>
+        <v>0.00439740629578278</v>
       </c>
       <c r="J25">
-        <v>0.6126622528946939</v>
+        <v>0.6124580993971165</v>
       </c>
       <c r="K25">
-        <v>0.3682924562508454</v>
+        <v>0.301845452847056</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1379487128330439</v>
       </c>
       <c r="M25">
-        <v>2.576787085529077</v>
+        <v>0.09131403489378265</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9632585924660404</v>
+        <v>2.656307129818373</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.9819137539690246</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
